--- a/Bot_screening/low.xlsx
+++ b/Bot_screening/low.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,39 +475,311 @@
           <t>ripple</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>binance-usd</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>cardano</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>solana</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>dogecoin</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>polkadot</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>shiba-inu</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>dai</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>staked-ether</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>matic-network</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>tron</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>avalanche-2</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>uniswap</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>wrapped-bitcoin</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>okb</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>leo-token</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>litecoin</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>ethereum-classic</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>cosmos</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>ftx-token</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>near</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>crypto-com-chain</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>stellar</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>monero</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>algorand</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>bitcoin-cash</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>terra-luna</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>quant-network</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>flow</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>apecoin</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>vechain</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>filecoin</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>chain-2</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>internet-computer</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44802</v>
+        <v>44803</v>
       </c>
       <c r="B2" t="n">
-        <v>19963.72</v>
+        <v>19621.98</v>
       </c>
       <c r="C2" t="n">
-        <v>0.074284</v>
+        <v>0.075656</v>
       </c>
       <c r="D2" t="n">
-        <v>4.9e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>4.9e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>0.013934</v>
+        <v>0.014111</v>
       </c>
       <c r="G2" t="n">
         <v>1.6e-05</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5.1e-05</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.2e-05</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001573</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.000352</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6.09e-10</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5.1e-05</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.07356</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4e-05</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.000973</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.000304</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.998272</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0007649999999999999</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.000271</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.000326</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.002658</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.001622</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.00057</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.00133</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.000203</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.007509</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.005722</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>7.533e-09</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.004819</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>9.8e-05</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.000239</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.000286</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4e-06</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.000316</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="B3" t="n">
-        <v>19621.98</v>
+        <v>19810.93</v>
       </c>
       <c r="C3" t="n">
-        <v>0.075656</v>
+        <v>0.076963</v>
       </c>
       <c r="D3" t="n">
         <v>4.9e-05</v>
@@ -516,21 +788,123 @@
         <v>4.9e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>0.013981</v>
+        <v>0.013988</v>
       </c>
       <c r="G3" t="n">
         <v>1.6e-05</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.9e-05</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.2e-05</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001582</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.000352</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6.05e-10</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.9e-05</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.074778</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.1e-05</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.000965</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.000308</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.998529</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.00076</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.000265</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.00033</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.002669</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.001617</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.000584</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.001336</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.000208</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.007397</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.005744</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>7.539000000000001e-09</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.004757</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.00024</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.000286</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4e-06</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.000313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="B4" t="n">
-        <v>19810.93</v>
+        <v>19632.46</v>
       </c>
       <c r="C4" t="n">
-        <v>0.076963</v>
+        <v>0.07709199999999999</v>
       </c>
       <c r="D4" t="n">
         <v>4.9e-05</v>
@@ -539,21 +913,123 @@
         <v>4.9e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.013988</v>
+        <v>0.013763</v>
       </c>
       <c r="G4" t="n">
         <v>1.6e-05</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.9e-05</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.2e-05</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001548</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.000349</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6.02e-10</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.9e-05</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.074918</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.1e-05</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.000933</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.000303</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.9988860000000001</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.000761</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.000282</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.000327</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.002681</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.001591</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.00058</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.001324</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.000212</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.007423</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1.4e-05</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.005708</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9.673999999999999e-09</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.004717</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.000101</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.000234</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.000285</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4e-06</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.000306</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="B5" t="n">
-        <v>19632.46</v>
+        <v>19825.52</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07709199999999999</v>
+        <v>0.07868799999999999</v>
       </c>
       <c r="D5" t="n">
         <v>4.9e-05</v>
@@ -562,44 +1038,248 @@
         <v>4.9e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>0.013763</v>
+        <v>0.013785</v>
       </c>
       <c r="G5" t="n">
         <v>1.6e-05</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.9e-05</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.3e-05</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001561</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.000355</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6.05e-10</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.9e-05</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.07556300000000001</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.4e-05</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.00095</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.000312</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.998281</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.000763</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.000263</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.000335</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.002832</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.001625</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.00061</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.001321</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.000209</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.007511</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.00579</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1.1196e-08</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.004631</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9.899999999999999e-05</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.000235</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.000286</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4e-06</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.000307</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44806</v>
+        <v>44807</v>
       </c>
       <c r="B6" t="n">
-        <v>19825.52</v>
+        <v>19782.11</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07868799999999999</v>
+        <v>0.07795299999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>4.9e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>4.9e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>0.013785</v>
+        <v>0.013794</v>
       </c>
       <c r="G6" t="n">
         <v>1.6e-05</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.3e-05</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.001555</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.000362</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6.07e-10</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.075283</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.4e-05</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.000938</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.000315</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.999151</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.000778</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.000263</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.000343</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.00302</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.001623</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.000616</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.001314</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.000208</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.0076</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.005801</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.1646e-08</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.004633</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9.6e-05</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.000235</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.000288</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4e-06</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.000311</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44807</v>
+        <v>44808</v>
       </c>
       <c r="B7" t="n">
-        <v>19782.11</v>
+        <v>19704.1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07795299999999999</v>
+        <v>0.078517</v>
       </c>
       <c r="D7" t="n">
         <v>5e-05</v>
@@ -608,21 +1288,123 @@
         <v>5e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.013794</v>
+        <v>0.014012</v>
       </c>
       <c r="G7" t="n">
-        <v>1.6e-05</v>
+        <v>1.7e-05</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.4e-05</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.001569</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.000364</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6.21e-10</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.07603500000000001</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.4e-05</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.000951</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.000317</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.998721</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.000767</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.00026</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.000345</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.002978</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.001616</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.000629</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.001319</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.00021</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.007776</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.005897</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.205e-08</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.004707</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9.8e-05</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.000239</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.000312</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4e-06</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.000321</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44808</v>
+        <v>44809</v>
       </c>
       <c r="B8" t="n">
-        <v>19704.1</v>
+        <v>19657.12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.078517</v>
+        <v>0.078795</v>
       </c>
       <c r="D8" t="n">
         <v>5e-05</v>
@@ -631,21 +1413,123 @@
         <v>5e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>0.014012</v>
+        <v>0.013896</v>
       </c>
       <c r="G8" t="n">
-        <v>1.7e-05</v>
+        <v>1.6e-05</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.5e-05</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.001585</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.000366</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6.23e-10</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.07636900000000001</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.4e-05</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.0009389999999999999</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.000317</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.999383</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.00077</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.000259</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.000357</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.002995</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.001614</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.000639</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.00132</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.000209</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.007763</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.005906</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1.2121e-08</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.004714</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9.500000000000001e-05</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.000236</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.000302</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4e-06</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.000327</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="B9" t="n">
-        <v>19657.12</v>
+        <v>18972.29</v>
       </c>
       <c r="C9" t="n">
-        <v>0.078795</v>
+        <v>0.080447</v>
       </c>
       <c r="D9" t="n">
         <v>5e-05</v>
@@ -654,44 +1538,248 @@
         <v>5e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>0.013896</v>
+        <v>0.013902</v>
       </c>
       <c r="G9" t="n">
-        <v>1.6e-05</v>
+        <v>1.7e-05</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.5e-05</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.00161</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.000367</v>
+      </c>
+      <c r="M9" t="n">
+        <v>6.28e-10</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.07791099999999999</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.4e-05</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.0009479999999999999</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.000313</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.999284</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.00074</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.000252</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.000356</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.002909</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.001849</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.000622</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.001338</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.000211</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.007765</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.006047</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1.7303e-08</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.004645</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9.399999999999999e-05</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.00023</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.000298</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4e-06</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.000328</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="B10" t="n">
-        <v>18972.29</v>
+        <v>18650.25</v>
       </c>
       <c r="C10" t="n">
-        <v>0.080447</v>
+        <v>0.080553</v>
       </c>
       <c r="D10" t="n">
-        <v>5e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="E10" t="n">
-        <v>5e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>0.013902</v>
+        <v>0.013961</v>
       </c>
       <c r="G10" t="n">
         <v>1.7e-05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5.3e-05</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.4e-05</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.00164</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.000365</v>
+      </c>
+      <c r="M10" t="n">
+        <v>6.3e-10</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.2e-05</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.07718999999999999</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.3e-05</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.000967</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.000309</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.997963</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.000722</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.000268</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.000353</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.002856</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.001797</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.000621</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.00134</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.000214</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.007583</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.005956</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.8062e-08</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.004671</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9.399999999999999e-05</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.000226</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.000296</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4e-06</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.000328</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="B11" t="n">
-        <v>18650.25</v>
+        <v>19039.17</v>
       </c>
       <c r="C11" t="n">
-        <v>0.080553</v>
+        <v>0.082542</v>
       </c>
       <c r="D11" t="n">
         <v>5.2e-05</v>
@@ -700,67 +1788,373 @@
         <v>5.2e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>0.013961</v>
+        <v>0.014205</v>
       </c>
       <c r="G11" t="n">
         <v>1.7e-05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.2e-05</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.4e-05</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.001681</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.000371</v>
+      </c>
+      <c r="M11" t="n">
+        <v>6.3e-10</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.2e-05</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.07925</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.3e-05</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.000972</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.000315</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.998952</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.000712</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.000262</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.000363</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.002941</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.001875</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.000637</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.001346</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.000225</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.00771</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.006052</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>2.2478e-08</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.004945</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>9.7e-05</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.000228</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.000301</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4e-06</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.000332</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="B12" t="n">
-        <v>19039.17</v>
+        <v>19279.28</v>
       </c>
       <c r="C12" t="n">
-        <v>0.082542</v>
+        <v>0.080257</v>
       </c>
       <c r="D12" t="n">
-        <v>5.2e-05</v>
+        <v>4.7e-05</v>
       </c>
       <c r="E12" t="n">
-        <v>5.2e-05</v>
+        <v>4.7e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>0.014205</v>
+        <v>0.013686</v>
       </c>
       <c r="G12" t="n">
-        <v>1.7e-05</v>
+        <v>1.6e-05</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.7e-05</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.3e-05</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.001629</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.000364</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5.98e-10</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4.7e-05</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.077678</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.1e-05</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.000951</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.000301</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.997524</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.000772</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.000236</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.000362</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.002857</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.001805</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.000683</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.001284</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.000222</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.007321</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.006205</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1.9406e-08</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.004906</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>9.7e-05</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.00023</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.000295</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.000326</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44813</v>
+        <v>44814</v>
       </c>
       <c r="B13" t="n">
-        <v>19279.28</v>
+        <v>21186.66</v>
       </c>
       <c r="C13" t="n">
-        <v>0.080257</v>
+        <v>0.08038099999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>4.7e-05</v>
+        <v>4.6e-05</v>
       </c>
       <c r="E13" t="n">
-        <v>4.7e-05</v>
+        <v>4.6e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>0.013686</v>
+        <v>0.013654</v>
       </c>
       <c r="G13" t="n">
         <v>1.6e-05</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.6e-05</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.3e-05</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.001613</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.000359</v>
+      </c>
+      <c r="M13" t="n">
+        <v>6.01e-10</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.6e-05</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.077926</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4.1e-05</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.000947</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.000302</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.99831</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.0007649999999999999</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.000231</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.000359</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.002853</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.001803</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.000735</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.001272</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.00022</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.007341</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.006107</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1.9461e-08</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.004752</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>9.7e-05</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.000232</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.000293</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.000329</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44814</v>
+        <v>44815</v>
       </c>
       <c r="B14" t="n">
-        <v>21186.66</v>
+        <v>21415.84</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08038099999999999</v>
+        <v>0.080564</v>
       </c>
       <c r="D14" t="n">
         <v>4.6e-05</v>
@@ -769,90 +2163,498 @@
         <v>4.6e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>0.013654</v>
+        <v>0.0136</v>
       </c>
       <c r="G14" t="n">
         <v>1.6e-05</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.6e-05</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.4e-05</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.001596</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.000356</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5.94e-10</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.6e-05</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.078308</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.1e-05</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0009389999999999999</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.000302</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.998109</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.000749</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.000229</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.000363</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.002897</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.001783</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.000725</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.001272</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.000218</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.007224</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.00603</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1.8452e-08</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.004784</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>9.6e-05</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.000231</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.000291</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.000326</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44815</v>
+        <v>44816</v>
       </c>
       <c r="B15" t="n">
-        <v>21415.84</v>
+        <v>21577.72</v>
       </c>
       <c r="C15" t="n">
-        <v>0.080564</v>
+        <v>0.077098</v>
       </c>
       <c r="D15" t="n">
-        <v>4.6e-05</v>
+        <v>4.5e-05</v>
       </c>
       <c r="E15" t="n">
-        <v>4.6e-05</v>
+        <v>4.5e-05</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0136</v>
+        <v>0.013087</v>
       </c>
       <c r="G15" t="n">
         <v>1.6e-05</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.5e-05</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.3e-05</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.001593</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.000345</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5.71e-10</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.5e-05</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.07505100000000001</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4e-05</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.000933</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.000295</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.997445</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.000727</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.000222</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.000347</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.002736</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.001707</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.0006890000000000001</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.00125</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.000217</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.007174</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1.4e-05</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.005751</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1.4603e-08</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.004729</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>9.3e-05</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.000239</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.000291</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.000311</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="B16" t="n">
-        <v>21577.72</v>
+        <v>20253.46</v>
       </c>
       <c r="C16" t="n">
-        <v>0.077098</v>
+        <v>0.075582</v>
       </c>
       <c r="D16" t="n">
-        <v>4.5e-05</v>
+        <v>4.4e-05</v>
       </c>
       <c r="E16" t="n">
-        <v>4.5e-05</v>
+        <v>4.4e-05</v>
       </c>
       <c r="F16" t="n">
-        <v>0.013087</v>
+        <v>0.013018</v>
       </c>
       <c r="G16" t="n">
         <v>1.6e-05</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.4e-05</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.2e-05</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.001663</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.000339</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5.69e-10</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.4e-05</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.073377</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4e-05</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.000934</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.000292</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.9979980000000001</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.000719</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.000221</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.000343</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.002728</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.001664</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.000685</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.001262</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.000217</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.007092</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1.4e-05</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.005732</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1.3447e-08</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.004646</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.00024</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.000283</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.000307</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="B17" t="n">
-        <v>20253.46</v>
+        <v>19850.48</v>
       </c>
       <c r="C17" t="n">
-        <v>0.075582</v>
+        <v>0.077885</v>
       </c>
       <c r="D17" t="n">
-        <v>4.4e-05</v>
+        <v>4.9e-05</v>
       </c>
       <c r="E17" t="n">
-        <v>4.4e-05</v>
+        <v>4.9e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>0.013018</v>
+        <v>0.013673</v>
       </c>
       <c r="G17" t="n">
         <v>1.6e-05</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.9e-05</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.3e-05</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.001635</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.00035</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5.96e-10</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4.9e-05</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.075437</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4.2e-05</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.000936</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.000299</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.998435</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.000748</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.000235</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.000349</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.002907</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.001755</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.000682</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.001256</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.000219</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.007177</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.005819</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1.3738e-08</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.004851</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>9.1e-05</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.000246</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.000289</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.000313</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="B18" t="n">
-        <v>19850.48</v>
+        <v>19754.33</v>
       </c>
       <c r="C18" t="n">
-        <v>0.077885</v>
+        <v>0.07546899999999999</v>
       </c>
       <c r="D18" t="n">
         <v>4.9e-05</v>
@@ -861,44 +2663,248 @@
         <v>4.9e-05</v>
       </c>
       <c r="F18" t="n">
-        <v>0.013673</v>
+        <v>0.013659</v>
       </c>
       <c r="G18" t="n">
         <v>1.6e-05</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.9e-05</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.3e-05</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.001651</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.000351</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5.91e-10</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.9e-05</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.07439</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4.2e-05</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.000931</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.000297</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.996501</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.000761</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.000239</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.000359</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.002877</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.001793</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.00067</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.001225</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.000214</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.007343</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.005861</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1.2498e-08</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.004827</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0.000248</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.000289</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.000304</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="B19" t="n">
-        <v>19754.33</v>
+        <v>19473.37</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07546899999999999</v>
+        <v>0.07309599999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>4.9e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="E19" t="n">
-        <v>4.9e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>0.013659</v>
+        <v>0.013689</v>
       </c>
       <c r="G19" t="n">
         <v>1.6e-05</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.3e-05</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.001634</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.000346</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5.83e-10</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.072148</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4.1e-05</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.000899</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.000292</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.997956</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.000767</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.000244</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.00037</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.002794</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.001712</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.000744</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.001218</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.000211</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.007309</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.005915</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1.2477e-08</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.005104</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>8.8e-05</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.000236</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.000289</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.000304</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44820</v>
+        <v>44821</v>
       </c>
       <c r="B20" t="n">
-        <v>19473.37</v>
+        <v>19647.43</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07309599999999999</v>
+        <v>0.07155499999999999</v>
       </c>
       <c r="D20" t="n">
         <v>5e-05</v>
@@ -907,21 +2913,123 @@
         <v>5e-05</v>
       </c>
       <c r="F20" t="n">
-        <v>0.013689</v>
+        <v>0.013856</v>
       </c>
       <c r="G20" t="n">
-        <v>1.6e-05</v>
+        <v>1.7e-05</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.4e-05</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.001628</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.000347</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5.840000000000001e-10</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.070728</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4.1e-05</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.000913</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.000294</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.997718</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.000778</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.000246</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.000383</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.002814</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.001703</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.000809</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.001216</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.000213</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.007498</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.006013</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1.4707e-08</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.00532</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.000235</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.000293</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.000312</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44821</v>
+        <v>44822</v>
       </c>
       <c r="B21" t="n">
-        <v>19647.43</v>
+        <v>19674.82</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07155499999999999</v>
+        <v>0.070095</v>
       </c>
       <c r="D21" t="n">
         <v>5e-05</v>
@@ -930,44 +3038,248 @@
         <v>5e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>0.013856</v>
+        <v>0.013845</v>
       </c>
       <c r="G21" t="n">
-        <v>1.7e-05</v>
+        <v>1.8e-05</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.4e-05</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.001644</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.000343</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5.8e-10</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.069493</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4e-05</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.000904</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.000292</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.997988</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.000769</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.000236</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.000396</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.002832</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.001628</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.00078</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.001214</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.000211</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.007335</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.005885</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.4152e-08</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.005271</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>8.899999999999999e-05</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.000253</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.000289</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.000306</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44822</v>
+        <v>44823</v>
       </c>
       <c r="B22" t="n">
-        <v>19674.82</v>
+        <v>18471.22</v>
       </c>
       <c r="C22" t="n">
-        <v>0.070095</v>
+        <v>0.06861200000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>5e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="E22" t="n">
-        <v>5e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="F22" t="n">
-        <v>0.013845</v>
+        <v>0.013672</v>
       </c>
       <c r="G22" t="n">
         <v>1.8e-05</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5.1e-05</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.3e-05</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.001602</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.00033</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5.47e-10</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5.1e-05</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.068148</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.9e-05</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.000862</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.00028</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.996937</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.000771</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.000235</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.000379</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.00271</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.001503</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.00076</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.001205</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.000201</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.00715</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1.5e-05</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.005761</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1.3943e-08</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.005237</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>8.500000000000001e-05</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.000261</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.00027</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.000293</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="B23" t="n">
-        <v>18471.22</v>
+        <v>18830.92</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06861200000000001</v>
+        <v>0.069564</v>
       </c>
       <c r="D23" t="n">
         <v>5.1e-05</v>
@@ -976,21 +3288,123 @@
         <v>5.1e-05</v>
       </c>
       <c r="F23" t="n">
-        <v>0.013672</v>
+        <v>0.013764</v>
       </c>
       <c r="G23" t="n">
-        <v>1.8e-05</v>
+        <v>1.9e-05</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5.1e-05</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.3e-05</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.001667</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.000325</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5.6e-10</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5.1e-05</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.068941</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.9e-05</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.000875</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.00028</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.998256</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.000764</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.000237</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.000365</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.002677</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.001517</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.000746</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.001235</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.000205</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.007187</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.6e-05</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.005723</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1.5106e-08</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.00544</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>8.6e-05</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.000295</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.000279</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0.000309</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="B24" t="n">
-        <v>18830.92</v>
+        <v>18874.85</v>
       </c>
       <c r="C24" t="n">
-        <v>0.069564</v>
+        <v>0.069697</v>
       </c>
       <c r="D24" t="n">
         <v>5.1e-05</v>
@@ -999,90 +3413,498 @@
         <v>5.1e-05</v>
       </c>
       <c r="F24" t="n">
-        <v>0.013764</v>
+        <v>0.013843</v>
       </c>
       <c r="G24" t="n">
-        <v>1.9e-05</v>
+        <v>2e-05</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5.2e-05</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.3e-05</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.001638</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.000326</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5.5e-10</v>
+      </c>
+      <c r="N24" t="n">
+        <v>5.1e-05</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.069185</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.8e-05</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.000878</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.00028</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.997733</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.000775</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.000224</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.000362</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.00272</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.001503</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.000726</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.001224</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.000198</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.00731</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.6e-05</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.00587</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.4369e-08</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0.005279</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>8.6e-05</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.000294</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0.000275</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0.000306</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="B25" t="n">
-        <v>18874.85</v>
+        <v>18424.7</v>
       </c>
       <c r="C25" t="n">
-        <v>0.069697</v>
+        <v>0.067019</v>
       </c>
       <c r="D25" t="n">
-        <v>5.1e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="E25" t="n">
-        <v>5.1e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>0.013843</v>
+        <v>0.013991</v>
       </c>
       <c r="G25" t="n">
-        <v>2e-05</v>
+        <v>2.1e-05</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5.2e-05</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.4e-05</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.001658</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.000328</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5.57e-10</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5.2e-05</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.066471</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.8e-05</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.0008899999999999999</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.000285</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.998541</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.000776</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.000229</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.00036</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.002752</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.001484</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.000712</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.001213</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.000195</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.007276</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1.7e-05</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.005892</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1.4355e-08</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.005381</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>8.8e-05</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.000298</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.00028</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.000314</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="B26" t="n">
-        <v>18424.7</v>
+        <v>18663.93</v>
       </c>
       <c r="C26" t="n">
-        <v>0.067019</v>
+        <v>0.068118</v>
       </c>
       <c r="D26" t="n">
-        <v>5.2e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="E26" t="n">
-        <v>5.2e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="F26" t="n">
-        <v>0.013991</v>
+        <v>0.014164</v>
       </c>
       <c r="G26" t="n">
-        <v>2.1e-05</v>
+        <v>2.5e-05</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5.1e-05</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.4e-05</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.001669</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.000332</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5.59e-10</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5.1e-05</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.067756</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.9e-05</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.000911</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.000295</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.997605</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.000775</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.000217</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.000365</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.002749</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.001471</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.000722</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.001219</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.000195</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.007311</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1.9e-05</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.005983</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.3035e-08</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.005347</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>8.8e-05</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.000293</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.000284</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4e-06</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.000313</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44827</v>
+        <v>44828</v>
       </c>
       <c r="B27" t="n">
-        <v>18663.93</v>
+        <v>18815.96</v>
       </c>
       <c r="C27" t="n">
-        <v>0.068118</v>
+        <v>0.068745</v>
       </c>
       <c r="D27" t="n">
-        <v>5.1e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="E27" t="n">
-        <v>5.1e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>0.014164</v>
+        <v>0.014317</v>
       </c>
       <c r="G27" t="n">
         <v>2.5e-05</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5.2e-05</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.4e-05</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.001695</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.000333</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5.74e-10</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5.2e-05</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.068202</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4e-05</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.000929</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.000306</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.997417</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.00077</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.000217</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.000377</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.00284</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.001494</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.000728</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.001237</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.000196</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.007336</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.006105</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.2353e-08</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.005644</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>8.899999999999999e-05</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.000289</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.000295</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>4e-06</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.00032</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44828</v>
+        <v>44829</v>
       </c>
       <c r="B28" t="n">
-        <v>18815.96</v>
+        <v>18911.03</v>
       </c>
       <c r="C28" t="n">
-        <v>0.068745</v>
+        <v>0.068143</v>
       </c>
       <c r="D28" t="n">
         <v>5.2e-05</v>
@@ -1091,21 +3913,123 @@
         <v>5.2e-05</v>
       </c>
       <c r="F28" t="n">
-        <v>0.014317</v>
+        <v>0.014464</v>
       </c>
       <c r="G28" t="n">
         <v>2.5e-05</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5.2e-05</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.4e-05</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.001737</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.000328</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5.88e-10</v>
+      </c>
+      <c r="N28" t="n">
+        <v>5.2e-05</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.067802</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.9e-05</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.000923</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.000303</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.996709</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.000798</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.000223</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.000404</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.002822</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.001511</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.000722</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.001246</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.000195</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.007442</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.006049</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1.1244e-08</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.005952</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>8.8e-05</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.000286</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.000294</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4e-06</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.000311</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44829</v>
+        <v>44830</v>
       </c>
       <c r="B29" t="n">
-        <v>18911.03</v>
+        <v>18708.63</v>
       </c>
       <c r="C29" t="n">
-        <v>0.068143</v>
+        <v>0.06834899999999999</v>
       </c>
       <c r="D29" t="n">
         <v>5.2e-05</v>
@@ -1114,79 +4038,487 @@
         <v>5.2e-05</v>
       </c>
       <c r="F29" t="n">
-        <v>0.014464</v>
+        <v>0.014323</v>
       </c>
       <c r="G29" t="n">
-        <v>2.5e-05</v>
+        <v>2.4e-05</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5.2e-05</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.3e-05</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.001713</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.000328</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5.71e-10</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5.2e-05</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.06801699999999999</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.9e-05</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.000905</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.000297</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.998341</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.000791</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.000213</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.000402</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.002765</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.00147</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.000731</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.001242</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.00019</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.007461</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.9e-05</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>9.826999999999999e-09</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0.006055</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>8.500000000000001e-05</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0.000285</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0.000295</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>4e-06</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0.00031</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="B30" t="n">
-        <v>18708.63</v>
+        <v>18966.33</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06834899999999999</v>
+        <v>0.06836200000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>5.2e-05</v>
+        <v>4.9e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>5.2e-05</v>
+        <v>4.9e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>0.014323</v>
+        <v>0.013983</v>
       </c>
       <c r="G30" t="n">
-        <v>2.4e-05</v>
+        <v>2.3e-05</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4.9e-05</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.2e-05</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.001706</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.000331</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5.6e-10</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4.9e-05</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.068204</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.8e-05</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.000891</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.000306</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.997774</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.000768</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.000203</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.000406</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.002702</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.001432</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.000697</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.001225</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.000185</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.007429</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1.8e-05</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.005877</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1.3698e-08</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.00607</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>8.4e-05</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.00028</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.000293</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>4e-06</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.000312</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="B31" t="n">
-        <v>18966.33</v>
+        <v>18548.96</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06836200000000001</v>
+        <v>0.068109</v>
       </c>
       <c r="D31" t="n">
-        <v>4.9e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="E31" t="n">
-        <v>4.9e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>0.013983</v>
+        <v>0.014203</v>
       </c>
       <c r="G31" t="n">
-        <v>2.3e-05</v>
+        <v>2.2e-05</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5.1e-05</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.2e-05</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.001692</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.000327</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5.72e-10</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5.1e-05</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.06796099999999999</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3.8e-05</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.000882</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.000325</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.998075</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.00079</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.000214</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.000406</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.00272</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.001417</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.000666</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.001227</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.000183</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.007441</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.8e-05</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0.005815</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.3971e-08</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0.006722</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>8.4e-05</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0.000276</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0.000296</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>4e-06</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0.000309</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="B32" t="n">
-        <v>18548.96</v>
+        <v>19099.74</v>
       </c>
       <c r="C32" t="n">
-        <v>0.068285</v>
+        <v>0.068315</v>
       </c>
       <c r="D32" t="n">
-        <v>5.2e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="E32" t="n">
-        <v>5.2e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>0.014203</v>
+        <v>0.014296</v>
       </c>
       <c r="G32" t="n">
-        <v>2.3e-05</v>
+        <v>2.1e-05</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5.1e-05</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.2e-05</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.000326</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5.7e-10</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5.1e-05</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.068051</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.8e-05</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.000883</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.000322</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.998923</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.000788</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.000209</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.000394</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.002718</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.001412</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.000656</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.001232</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.000183</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>6e-06</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.007517</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.8e-05</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.005848</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1.3977e-08</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.006705</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>8.4e-05</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.000274</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.000297</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>4e-06</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.000308</v>
       </c>
     </row>
   </sheetData>

--- a/Bot_screening/low.xlsx
+++ b/Bot_screening/low.xlsx
@@ -512,12 +512,12 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>staked-ether</t>
+          <t>matic-network</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>matic-network</t>
+          <t>staked-ether</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -527,12 +527,12 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>avalanche-2</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>uniswap</t>
+          <t>avalanche-2</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
@@ -542,22 +542,22 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>leo-token</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>okb</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>leo-token</t>
-        </is>
-      </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>litecoin</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>litecoin</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>chainlink</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
@@ -577,17 +577,17 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
+          <t>stellar</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
           <t>near</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>crypto-com-chain</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>stellar</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
@@ -622,12 +622,12 @@
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>apecoin</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>apecoin</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -648,659 +648,659 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44803</v>
+        <v>44808</v>
       </c>
       <c r="B2" t="n">
-        <v>19621.98</v>
+        <v>19704.1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.075656</v>
+        <v>0.078517</v>
       </c>
       <c r="D2" t="n">
-        <v>5.1e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>5.1e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>0.014111</v>
+        <v>0.014012</v>
       </c>
       <c r="G2" t="n">
-        <v>1.6e-05</v>
+        <v>1.7e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>5.1e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2e-05</v>
+        <v>2.4e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001573</v>
+        <v>0.001569</v>
       </c>
       <c r="K2" t="n">
         <v>3e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000352</v>
+        <v>0.000364</v>
       </c>
       <c r="M2" t="n">
-        <v>6.09e-10</v>
+        <v>6.21e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>5.1e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07356</v>
+        <v>4.4e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>4e-05</v>
+        <v>0.07603500000000001</v>
       </c>
       <c r="Q2" t="n">
         <v>3e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>0.000973</v>
+        <v>0.000318</v>
       </c>
       <c r="S2" t="n">
-        <v>0.000304</v>
+        <v>0.000951</v>
       </c>
       <c r="T2" t="n">
-        <v>0.998272</v>
+        <v>0.998721</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0007649999999999999</v>
+        <v>0.00026</v>
       </c>
       <c r="V2" t="n">
-        <v>0.000271</v>
+        <v>0.000767</v>
       </c>
       <c r="W2" t="n">
-        <v>0.000326</v>
+        <v>0.002978</v>
       </c>
       <c r="X2" t="n">
-        <v>0.002658</v>
+        <v>0.000629</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.001622</v>
+        <v>0.001616</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.00057</v>
+        <v>0.000345</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.00133</v>
+        <v>0.001319</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.000203</v>
+        <v>5e-06</v>
       </c>
       <c r="AC2" t="n">
+        <v>0.00021</v>
+      </c>
+      <c r="AD2" t="n">
         <v>6e-06</v>
       </c>
-      <c r="AD2" t="n">
-        <v>5e-06</v>
-      </c>
       <c r="AE2" t="n">
-        <v>0.007509</v>
+        <v>0.007781</v>
       </c>
       <c r="AF2" t="n">
         <v>1.5e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.005722</v>
+        <v>0.005897</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.533e-09</v>
+        <v>1.205e-08</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.004819</v>
+        <v>0.004727</v>
       </c>
       <c r="AJ2" t="n">
         <v>9.8e-05</v>
       </c>
       <c r="AK2" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="AL2" t="n">
         <v>0.000239</v>
       </c>
-      <c r="AL2" t="n">
-        <v>1e-06</v>
-      </c>
       <c r="AM2" t="n">
-        <v>0.000286</v>
+        <v>0.000312</v>
       </c>
       <c r="AN2" t="n">
         <v>4e-06</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.000316</v>
+        <v>0.000321</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44804</v>
+        <v>44809</v>
       </c>
       <c r="B3" t="n">
-        <v>19810.93</v>
+        <v>19657.12</v>
       </c>
       <c r="C3" t="n">
-        <v>0.076963</v>
+        <v>0.078795</v>
       </c>
       <c r="D3" t="n">
-        <v>4.9e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>4.9e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>0.013988</v>
+        <v>0.013896</v>
       </c>
       <c r="G3" t="n">
         <v>1.6e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>4.9e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>2.2e-05</v>
+        <v>2.5e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001582</v>
+        <v>0.001585</v>
       </c>
       <c r="K3" t="n">
         <v>3e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000352</v>
+        <v>0.000366</v>
       </c>
       <c r="M3" t="n">
-        <v>6.05e-10</v>
+        <v>6.23e-10</v>
       </c>
       <c r="N3" t="n">
-        <v>4.9e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.074778</v>
+        <v>4.4e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>4.1e-05</v>
+        <v>0.07636900000000001</v>
       </c>
       <c r="Q3" t="n">
         <v>3e-06</v>
       </c>
       <c r="R3" t="n">
-        <v>0.000965</v>
+        <v>0.000317</v>
       </c>
       <c r="S3" t="n">
-        <v>0.000308</v>
+        <v>0.0009389999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>0.998529</v>
+        <v>0.999383</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00076</v>
+        <v>0.000259</v>
       </c>
       <c r="V3" t="n">
-        <v>0.000265</v>
+        <v>0.00077</v>
       </c>
       <c r="W3" t="n">
-        <v>0.00033</v>
+        <v>0.002995</v>
       </c>
       <c r="X3" t="n">
-        <v>0.002669</v>
+        <v>0.000639</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.001617</v>
+        <v>0.001614</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.000584</v>
+        <v>0.000357</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.001336</v>
+        <v>0.00132</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.000208</v>
+        <v>5e-06</v>
       </c>
       <c r="AC3" t="n">
+        <v>0.000209</v>
+      </c>
+      <c r="AD3" t="n">
         <v>6e-06</v>
       </c>
-      <c r="AD3" t="n">
-        <v>5e-06</v>
-      </c>
       <c r="AE3" t="n">
-        <v>0.007397</v>
+        <v>0.007763</v>
       </c>
       <c r="AF3" t="n">
         <v>1.5e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.005744</v>
+        <v>0.005906</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.539000000000001e-09</v>
+        <v>1.2121e-08</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.004757</v>
+        <v>0.004714</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.0001</v>
+        <v>9.500000000000001e-05</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.00024</v>
+        <v>1e-06</v>
       </c>
       <c r="AL3" t="n">
-        <v>1e-06</v>
+        <v>0.000236</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.000286</v>
+        <v>0.000302</v>
       </c>
       <c r="AN3" t="n">
         <v>4e-06</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.000313</v>
+        <v>0.000327</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44805</v>
+        <v>44810</v>
       </c>
       <c r="B4" t="n">
-        <v>19632.46</v>
+        <v>18972.29</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07709199999999999</v>
+        <v>0.080447</v>
       </c>
       <c r="D4" t="n">
-        <v>4.9e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>4.9e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.013763</v>
+        <v>0.013902</v>
       </c>
       <c r="G4" t="n">
-        <v>1.6e-05</v>
+        <v>1.7e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>4.9e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>2.2e-05</v>
+        <v>2.5e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001548</v>
+        <v>0.00161</v>
       </c>
       <c r="K4" t="n">
         <v>3e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000349</v>
+        <v>0.000367</v>
       </c>
       <c r="M4" t="n">
-        <v>6.02e-10</v>
+        <v>6.28e-10</v>
       </c>
       <c r="N4" t="n">
-        <v>4.9e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>0.074918</v>
+        <v>4.4e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>4.1e-05</v>
+        <v>0.07791099999999999</v>
       </c>
       <c r="Q4" t="n">
         <v>3e-06</v>
       </c>
       <c r="R4" t="n">
-        <v>0.000933</v>
+        <v>0.000313</v>
       </c>
       <c r="S4" t="n">
-        <v>0.000303</v>
+        <v>0.0009479999999999999</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9988860000000001</v>
+        <v>0.999284</v>
       </c>
       <c r="U4" t="n">
-        <v>0.000761</v>
+        <v>0.000252</v>
       </c>
       <c r="V4" t="n">
-        <v>0.000282</v>
+        <v>0.00074</v>
       </c>
       <c r="W4" t="n">
-        <v>0.000327</v>
+        <v>0.002909</v>
       </c>
       <c r="X4" t="n">
-        <v>0.002681</v>
+        <v>0.000622</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.001591</v>
+        <v>0.001849</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.00058</v>
+        <v>0.000356</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.001324</v>
+        <v>0.001338</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.000212</v>
+        <v>5e-06</v>
       </c>
       <c r="AC4" t="n">
+        <v>0.000211</v>
+      </c>
+      <c r="AD4" t="n">
         <v>6e-06</v>
       </c>
-      <c r="AD4" t="n">
-        <v>5e-06</v>
-      </c>
       <c r="AE4" t="n">
-        <v>0.007423</v>
+        <v>0.007765</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.4e-05</v>
+        <v>1.5e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.005708</v>
+        <v>0.006047</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.673999999999999e-09</v>
+        <v>1.7303e-08</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.004717</v>
+        <v>0.004645</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.000101</v>
+        <v>9.399999999999999e-05</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.000234</v>
+        <v>1e-06</v>
       </c>
       <c r="AL4" t="n">
-        <v>1e-06</v>
+        <v>0.00023</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.000285</v>
+        <v>0.000298</v>
       </c>
       <c r="AN4" t="n">
         <v>4e-06</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.000306</v>
+        <v>0.000328</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44806</v>
+        <v>44811</v>
       </c>
       <c r="B5" t="n">
-        <v>19825.52</v>
+        <v>18650.25</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07868799999999999</v>
+        <v>0.080553</v>
       </c>
       <c r="D5" t="n">
-        <v>4.9e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>4.9e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>0.013785</v>
+        <v>0.013961</v>
       </c>
       <c r="G5" t="n">
-        <v>1.6e-05</v>
+        <v>1.7e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>4.9e-05</v>
+        <v>5.3e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>2.3e-05</v>
+        <v>2.4e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001561</v>
+        <v>0.00164</v>
       </c>
       <c r="K5" t="n">
         <v>3e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000355</v>
+        <v>0.000365</v>
       </c>
       <c r="M5" t="n">
-        <v>6.05e-10</v>
+        <v>6.3e-10</v>
       </c>
       <c r="N5" t="n">
-        <v>4.9e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07556300000000001</v>
+        <v>4.3e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>4.4e-05</v>
+        <v>0.07718999999999999</v>
       </c>
       <c r="Q5" t="n">
         <v>3e-06</v>
       </c>
       <c r="R5" t="n">
-        <v>0.00095</v>
+        <v>0.000309</v>
       </c>
       <c r="S5" t="n">
-        <v>0.000312</v>
+        <v>0.000967</v>
       </c>
       <c r="T5" t="n">
-        <v>0.998281</v>
+        <v>0.997963</v>
       </c>
       <c r="U5" t="n">
-        <v>0.000763</v>
+        <v>0.000268</v>
       </c>
       <c r="V5" t="n">
-        <v>0.000263</v>
+        <v>0.000722</v>
       </c>
       <c r="W5" t="n">
-        <v>0.000335</v>
+        <v>0.002856</v>
       </c>
       <c r="X5" t="n">
-        <v>0.002832</v>
+        <v>0.000621</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001625</v>
+        <v>0.001797</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.00061</v>
+        <v>0.000353</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.001321</v>
+        <v>0.00134</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.000209</v>
+        <v>5e-06</v>
       </c>
       <c r="AC5" t="n">
+        <v>0.000214</v>
+      </c>
+      <c r="AD5" t="n">
         <v>6e-06</v>
       </c>
-      <c r="AD5" t="n">
-        <v>5e-06</v>
-      </c>
       <c r="AE5" t="n">
-        <v>0.007511</v>
+        <v>0.007583</v>
       </c>
       <c r="AF5" t="n">
         <v>1.5e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.00579</v>
+        <v>0.005956</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.1196e-08</v>
+        <v>1.8062e-08</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.004631</v>
+        <v>0.004671</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.899999999999999e-05</v>
+        <v>9.399999999999999e-05</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.000235</v>
+        <v>1e-06</v>
       </c>
       <c r="AL5" t="n">
-        <v>1e-06</v>
+        <v>0.000226</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.000286</v>
+        <v>0.000296</v>
       </c>
       <c r="AN5" t="n">
         <v>4e-06</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.000307</v>
+        <v>0.000328</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44807</v>
+        <v>44812</v>
       </c>
       <c r="B6" t="n">
-        <v>19782.11</v>
+        <v>19039.17</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07795299999999999</v>
+        <v>0.082542</v>
       </c>
       <c r="D6" t="n">
-        <v>5e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>5e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>0.013794</v>
+        <v>0.014205</v>
       </c>
       <c r="G6" t="n">
-        <v>1.6e-05</v>
+        <v>1.7e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>5e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>2.3e-05</v>
+        <v>2.4e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001555</v>
+        <v>0.001681</v>
       </c>
       <c r="K6" t="n">
         <v>3e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.000362</v>
+        <v>0.000371</v>
       </c>
       <c r="M6" t="n">
-        <v>6.07e-10</v>
+        <v>6.3e-10</v>
       </c>
       <c r="N6" t="n">
-        <v>5e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>0.075283</v>
+        <v>4.3e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>4.4e-05</v>
+        <v>0.07925</v>
       </c>
       <c r="Q6" t="n">
         <v>3e-06</v>
       </c>
       <c r="R6" t="n">
-        <v>0.000938</v>
+        <v>0.000315</v>
       </c>
       <c r="S6" t="n">
-        <v>0.000315</v>
+        <v>0.000972</v>
       </c>
       <c r="T6" t="n">
-        <v>0.999151</v>
+        <v>0.998952</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000778</v>
+        <v>0.000262</v>
       </c>
       <c r="V6" t="n">
-        <v>0.000263</v>
+        <v>0.000712</v>
       </c>
       <c r="W6" t="n">
-        <v>0.000343</v>
+        <v>0.002941</v>
       </c>
       <c r="X6" t="n">
-        <v>0.00302</v>
+        <v>0.000637</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.001623</v>
+        <v>0.001875</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.000616</v>
+        <v>0.000363</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.001314</v>
+        <v>0.001346</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.000208</v>
+        <v>5e-06</v>
       </c>
       <c r="AC6" t="n">
+        <v>0.000225</v>
+      </c>
+      <c r="AD6" t="n">
         <v>6e-06</v>
       </c>
-      <c r="AD6" t="n">
-        <v>5e-06</v>
-      </c>
       <c r="AE6" t="n">
-        <v>0.0076</v>
+        <v>0.00771</v>
       </c>
       <c r="AF6" t="n">
         <v>1.5e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.005801</v>
+        <v>0.006052</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.1646e-08</v>
+        <v>2.2478e-08</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.004633</v>
+        <v>0.004945</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.6e-05</v>
+        <v>9.7e-05</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.000235</v>
+        <v>1e-06</v>
       </c>
       <c r="AL6" t="n">
-        <v>1e-06</v>
+        <v>0.000228</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.000288</v>
+        <v>0.000301</v>
       </c>
       <c r="AN6" t="n">
         <v>4e-06</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.000311</v>
+        <v>0.000332</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44808</v>
+        <v>44813</v>
       </c>
       <c r="B7" t="n">
-        <v>19704.1</v>
+        <v>19279.28</v>
       </c>
       <c r="C7" t="n">
-        <v>0.078517</v>
+        <v>0.080257</v>
       </c>
       <c r="D7" t="n">
-        <v>5e-05</v>
+        <v>4.7e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>5e-05</v>
+        <v>4.7e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.014012</v>
+        <v>0.013686</v>
       </c>
       <c r="G7" t="n">
-        <v>1.7e-05</v>
+        <v>1.6e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>5e-05</v>
+        <v>4.7e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>2.4e-05</v>
+        <v>2.3e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001569</v>
+        <v>0.001629</v>
       </c>
       <c r="K7" t="n">
         <v>3e-06</v>
@@ -1309,2114 +1309,2114 @@
         <v>0.000364</v>
       </c>
       <c r="M7" t="n">
-        <v>6.21e-10</v>
+        <v>5.98e-10</v>
       </c>
       <c r="N7" t="n">
-        <v>5e-05</v>
+        <v>4.7e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07603500000000001</v>
+        <v>4.1e-05</v>
       </c>
       <c r="P7" t="n">
-        <v>4.4e-05</v>
+        <v>0.077678</v>
       </c>
       <c r="Q7" t="n">
         <v>3e-06</v>
       </c>
       <c r="R7" t="n">
+        <v>0.000301</v>
+      </c>
+      <c r="S7" t="n">
         <v>0.000951</v>
       </c>
-      <c r="S7" t="n">
-        <v>0.000317</v>
-      </c>
       <c r="T7" t="n">
-        <v>0.998721</v>
+        <v>0.997524</v>
       </c>
       <c r="U7" t="n">
-        <v>0.000767</v>
+        <v>0.000236</v>
       </c>
       <c r="V7" t="n">
-        <v>0.00026</v>
+        <v>0.000772</v>
       </c>
       <c r="W7" t="n">
-        <v>0.000345</v>
+        <v>0.002857</v>
       </c>
       <c r="X7" t="n">
-        <v>0.002978</v>
+        <v>0.000683</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.001616</v>
+        <v>0.001805</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.000629</v>
+        <v>0.000362</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.001319</v>
+        <v>0.001284</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.00021</v>
+        <v>5e-06</v>
       </c>
       <c r="AC7" t="n">
+        <v>0.000222</v>
+      </c>
+      <c r="AD7" t="n">
         <v>6e-06</v>
       </c>
-      <c r="AD7" t="n">
-        <v>5e-06</v>
-      </c>
       <c r="AE7" t="n">
-        <v>0.007776</v>
+        <v>0.007321</v>
       </c>
       <c r="AF7" t="n">
         <v>1.5e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.005897</v>
+        <v>0.006205</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.205e-08</v>
+        <v>1.9406e-08</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.004707</v>
+        <v>0.004906</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.8e-05</v>
+        <v>9.7e-05</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.000239</v>
+        <v>1e-06</v>
       </c>
       <c r="AL7" t="n">
-        <v>1e-06</v>
+        <v>0.00023</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.000312</v>
+        <v>0.000295</v>
       </c>
       <c r="AN7" t="n">
-        <v>4e-06</v>
+        <v>3e-06</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.000321</v>
+        <v>0.000326</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44809</v>
+        <v>44814</v>
       </c>
       <c r="B8" t="n">
-        <v>19657.12</v>
+        <v>21186.66</v>
       </c>
       <c r="C8" t="n">
-        <v>0.078795</v>
+        <v>0.08038099999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>5e-05</v>
+        <v>4.6e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>5e-05</v>
+        <v>4.6e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>0.013896</v>
+        <v>0.013654</v>
       </c>
       <c r="G8" t="n">
         <v>1.6e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>5e-05</v>
+        <v>4.6e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>2.5e-05</v>
+        <v>2.3e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.001585</v>
+        <v>0.001613</v>
       </c>
       <c r="K8" t="n">
         <v>3e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000366</v>
+        <v>0.000359</v>
       </c>
       <c r="M8" t="n">
-        <v>6.23e-10</v>
+        <v>6.01e-10</v>
       </c>
       <c r="N8" t="n">
-        <v>5e-05</v>
+        <v>4.6e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>0.07636900000000001</v>
+        <v>4.1e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>4.4e-05</v>
+        <v>0.077926</v>
       </c>
       <c r="Q8" t="n">
         <v>3e-06</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0009389999999999999</v>
+        <v>0.000302</v>
       </c>
       <c r="S8" t="n">
-        <v>0.000317</v>
+        <v>0.000947</v>
       </c>
       <c r="T8" t="n">
-        <v>0.999383</v>
+        <v>0.99831</v>
       </c>
       <c r="U8" t="n">
-        <v>0.00077</v>
+        <v>0.000231</v>
       </c>
       <c r="V8" t="n">
-        <v>0.000259</v>
+        <v>0.0007649999999999999</v>
       </c>
       <c r="W8" t="n">
-        <v>0.000357</v>
+        <v>0.002853</v>
       </c>
       <c r="X8" t="n">
-        <v>0.002995</v>
+        <v>0.000735</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001614</v>
+        <v>0.001803</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.000639</v>
+        <v>0.000359</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.00132</v>
+        <v>0.001272</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.000209</v>
+        <v>5e-06</v>
       </c>
       <c r="AC8" t="n">
+        <v>0.00022</v>
+      </c>
+      <c r="AD8" t="n">
         <v>6e-06</v>
       </c>
-      <c r="AD8" t="n">
-        <v>5e-06</v>
-      </c>
       <c r="AE8" t="n">
-        <v>0.007763</v>
+        <v>0.007341</v>
       </c>
       <c r="AF8" t="n">
         <v>1.5e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.005906</v>
+        <v>0.006107</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.2121e-08</v>
+        <v>1.9461e-08</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.004714</v>
+        <v>0.004752</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.500000000000001e-05</v>
+        <v>9.7e-05</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.000236</v>
+        <v>1e-06</v>
       </c>
       <c r="AL8" t="n">
-        <v>1e-06</v>
+        <v>0.000232</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.000302</v>
+        <v>0.000293</v>
       </c>
       <c r="AN8" t="n">
-        <v>4e-06</v>
+        <v>3e-06</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.000327</v>
+        <v>0.000329</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44810</v>
+        <v>44815</v>
       </c>
       <c r="B9" t="n">
-        <v>18972.29</v>
+        <v>21415.84</v>
       </c>
       <c r="C9" t="n">
-        <v>0.080447</v>
+        <v>0.080564</v>
       </c>
       <c r="D9" t="n">
-        <v>5e-05</v>
+        <v>4.6e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>5e-05</v>
+        <v>4.6e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>0.013902</v>
+        <v>0.0136</v>
       </c>
       <c r="G9" t="n">
-        <v>1.7e-05</v>
+        <v>1.6e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>5e-05</v>
+        <v>4.6e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>2.5e-05</v>
+        <v>2.4e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00161</v>
+        <v>0.001596</v>
       </c>
       <c r="K9" t="n">
         <v>3e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.000367</v>
+        <v>0.000356</v>
       </c>
       <c r="M9" t="n">
-        <v>6.28e-10</v>
+        <v>5.94e-10</v>
       </c>
       <c r="N9" t="n">
-        <v>5e-05</v>
+        <v>4.6e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>0.07791099999999999</v>
+        <v>4.1e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>4.4e-05</v>
+        <v>0.078308</v>
       </c>
       <c r="Q9" t="n">
         <v>3e-06</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0009479999999999999</v>
+        <v>0.000302</v>
       </c>
       <c r="S9" t="n">
-        <v>0.000313</v>
+        <v>0.0009389999999999999</v>
       </c>
       <c r="T9" t="n">
-        <v>0.999284</v>
+        <v>0.998109</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00074</v>
+        <v>0.000229</v>
       </c>
       <c r="V9" t="n">
-        <v>0.000252</v>
+        <v>0.000749</v>
       </c>
       <c r="W9" t="n">
-        <v>0.000356</v>
+        <v>0.002897</v>
       </c>
       <c r="X9" t="n">
-        <v>0.002909</v>
+        <v>0.000725</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.001849</v>
+        <v>0.001783</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.000622</v>
+        <v>0.000363</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.001338</v>
+        <v>0.001272</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.000211</v>
+        <v>5e-06</v>
       </c>
       <c r="AC9" t="n">
+        <v>0.000218</v>
+      </c>
+      <c r="AD9" t="n">
         <v>6e-06</v>
       </c>
-      <c r="AD9" t="n">
-        <v>5e-06</v>
-      </c>
       <c r="AE9" t="n">
-        <v>0.007765</v>
+        <v>0.007224</v>
       </c>
       <c r="AF9" t="n">
         <v>1.5e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.006047</v>
+        <v>0.00603</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.7303e-08</v>
+        <v>1.8452e-08</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.004645</v>
+        <v>0.004784</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.399999999999999e-05</v>
+        <v>9.6e-05</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.00023</v>
+        <v>1e-06</v>
       </c>
       <c r="AL9" t="n">
-        <v>1e-06</v>
+        <v>0.000231</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.000298</v>
+        <v>0.000291</v>
       </c>
       <c r="AN9" t="n">
-        <v>4e-06</v>
+        <v>3e-06</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.000328</v>
+        <v>0.000326</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44811</v>
+        <v>44816</v>
       </c>
       <c r="B10" t="n">
-        <v>18650.25</v>
+        <v>21577.72</v>
       </c>
       <c r="C10" t="n">
-        <v>0.080553</v>
+        <v>0.077098</v>
       </c>
       <c r="D10" t="n">
-        <v>5.2e-05</v>
+        <v>4.5e-05</v>
       </c>
       <c r="E10" t="n">
-        <v>5.2e-05</v>
+        <v>4.5e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>0.013961</v>
+        <v>0.013087</v>
       </c>
       <c r="G10" t="n">
-        <v>1.7e-05</v>
+        <v>1.6e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>5.3e-05</v>
+        <v>4.5e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>2.4e-05</v>
+        <v>2.3e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00164</v>
+        <v>0.001593</v>
       </c>
       <c r="K10" t="n">
         <v>3e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>0.000365</v>
+        <v>0.000345</v>
       </c>
       <c r="M10" t="n">
-        <v>6.3e-10</v>
+        <v>5.71e-10</v>
       </c>
       <c r="N10" t="n">
-        <v>5.2e-05</v>
+        <v>4.5e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>0.07718999999999999</v>
+        <v>4e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>4.3e-05</v>
+        <v>0.07505100000000001</v>
       </c>
       <c r="Q10" t="n">
         <v>3e-06</v>
       </c>
       <c r="R10" t="n">
-        <v>0.000967</v>
+        <v>0.000295</v>
       </c>
       <c r="S10" t="n">
-        <v>0.000309</v>
+        <v>0.000933</v>
       </c>
       <c r="T10" t="n">
-        <v>0.997963</v>
+        <v>0.997445</v>
       </c>
       <c r="U10" t="n">
-        <v>0.000722</v>
+        <v>0.000222</v>
       </c>
       <c r="V10" t="n">
-        <v>0.000268</v>
+        <v>0.000727</v>
       </c>
       <c r="W10" t="n">
-        <v>0.000353</v>
+        <v>0.002736</v>
       </c>
       <c r="X10" t="n">
-        <v>0.002856</v>
+        <v>0.0006890000000000001</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.001797</v>
+        <v>0.001707</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.000621</v>
+        <v>0.000347</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.00134</v>
+        <v>0.00125</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.000214</v>
+        <v>5e-06</v>
       </c>
       <c r="AC10" t="n">
+        <v>0.000217</v>
+      </c>
+      <c r="AD10" t="n">
         <v>6e-06</v>
       </c>
-      <c r="AD10" t="n">
-        <v>5e-06</v>
-      </c>
       <c r="AE10" t="n">
-        <v>0.007583</v>
+        <v>0.007174</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.5e-05</v>
+        <v>1.4e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.005956</v>
+        <v>0.005751</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.8062e-08</v>
+        <v>1.4603e-08</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.004671</v>
+        <v>0.004729</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.399999999999999e-05</v>
+        <v>9.3e-05</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.000226</v>
+        <v>1e-06</v>
       </c>
       <c r="AL10" t="n">
-        <v>1e-06</v>
+        <v>0.000239</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.000296</v>
+        <v>0.000291</v>
       </c>
       <c r="AN10" t="n">
-        <v>4e-06</v>
+        <v>3e-06</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.000328</v>
+        <v>0.000311</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44812</v>
+        <v>44817</v>
       </c>
       <c r="B11" t="n">
-        <v>19039.17</v>
+        <v>20253.46</v>
       </c>
       <c r="C11" t="n">
-        <v>0.082542</v>
+        <v>0.075582</v>
       </c>
       <c r="D11" t="n">
-        <v>5.2e-05</v>
+        <v>4.4e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>5.2e-05</v>
+        <v>4.4e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>0.014205</v>
+        <v>0.013018</v>
       </c>
       <c r="G11" t="n">
-        <v>1.7e-05</v>
+        <v>1.6e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>5.2e-05</v>
+        <v>4.4e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>2.4e-05</v>
+        <v>2.2e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001681</v>
+        <v>0.001663</v>
       </c>
       <c r="K11" t="n">
         <v>3e-06</v>
       </c>
       <c r="L11" t="n">
-        <v>0.000371</v>
+        <v>0.000339</v>
       </c>
       <c r="M11" t="n">
-        <v>6.3e-10</v>
+        <v>5.69e-10</v>
       </c>
       <c r="N11" t="n">
-        <v>5.2e-05</v>
+        <v>4.4e-05</v>
       </c>
       <c r="O11" t="n">
-        <v>0.07925</v>
+        <v>4e-05</v>
       </c>
       <c r="P11" t="n">
-        <v>4.3e-05</v>
+        <v>0.073377</v>
       </c>
       <c r="Q11" t="n">
         <v>3e-06</v>
       </c>
       <c r="R11" t="n">
-        <v>0.000972</v>
+        <v>0.000292</v>
       </c>
       <c r="S11" t="n">
-        <v>0.000315</v>
+        <v>0.000934</v>
       </c>
       <c r="T11" t="n">
-        <v>0.998952</v>
+        <v>0.9979980000000001</v>
       </c>
       <c r="U11" t="n">
-        <v>0.000712</v>
+        <v>0.000221</v>
       </c>
       <c r="V11" t="n">
-        <v>0.000262</v>
+        <v>0.000719</v>
       </c>
       <c r="W11" t="n">
-        <v>0.000363</v>
+        <v>0.002728</v>
       </c>
       <c r="X11" t="n">
-        <v>0.002941</v>
+        <v>0.000685</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.001875</v>
+        <v>0.001664</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.000637</v>
+        <v>0.000343</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.001346</v>
+        <v>0.001262</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.000225</v>
+        <v>5e-06</v>
       </c>
       <c r="AC11" t="n">
-        <v>6e-06</v>
+        <v>0.000217</v>
       </c>
       <c r="AD11" t="n">
         <v>5e-06</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.00771</v>
+        <v>0.007092</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.5e-05</v>
+        <v>1.4e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.006052</v>
+        <v>0.005732</v>
       </c>
       <c r="AH11" t="n">
-        <v>2.2478e-08</v>
+        <v>1.3447e-08</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.004945</v>
+        <v>0.004646</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9.7e-05</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.000228</v>
+        <v>1e-06</v>
       </c>
       <c r="AL11" t="n">
-        <v>1e-06</v>
+        <v>0.00024</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.000301</v>
+        <v>0.000283</v>
       </c>
       <c r="AN11" t="n">
-        <v>4e-06</v>
+        <v>3e-06</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.000332</v>
+        <v>0.000307</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44813</v>
+        <v>44818</v>
       </c>
       <c r="B12" t="n">
-        <v>19279.28</v>
+        <v>19850.48</v>
       </c>
       <c r="C12" t="n">
-        <v>0.080257</v>
+        <v>0.077885</v>
       </c>
       <c r="D12" t="n">
-        <v>4.7e-05</v>
+        <v>4.9e-05</v>
       </c>
       <c r="E12" t="n">
-        <v>4.7e-05</v>
+        <v>4.9e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>0.013686</v>
+        <v>0.013673</v>
       </c>
       <c r="G12" t="n">
         <v>1.6e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>4.7e-05</v>
+        <v>4.9e-05</v>
       </c>
       <c r="I12" t="n">
         <v>2.3e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001629</v>
+        <v>0.001635</v>
       </c>
       <c r="K12" t="n">
         <v>3e-06</v>
       </c>
       <c r="L12" t="n">
-        <v>0.000364</v>
+        <v>0.00035</v>
       </c>
       <c r="M12" t="n">
-        <v>5.98e-10</v>
+        <v>5.96e-10</v>
       </c>
       <c r="N12" t="n">
-        <v>4.7e-05</v>
+        <v>4.9e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>0.077678</v>
+        <v>4.2e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>4.1e-05</v>
+        <v>0.075437</v>
       </c>
       <c r="Q12" t="n">
         <v>3e-06</v>
       </c>
       <c r="R12" t="n">
-        <v>0.000951</v>
+        <v>0.000299</v>
       </c>
       <c r="S12" t="n">
-        <v>0.000301</v>
+        <v>0.000936</v>
       </c>
       <c r="T12" t="n">
-        <v>0.997524</v>
+        <v>0.998435</v>
       </c>
       <c r="U12" t="n">
-        <v>0.000772</v>
+        <v>0.000235</v>
       </c>
       <c r="V12" t="n">
-        <v>0.000236</v>
+        <v>0.000748</v>
       </c>
       <c r="W12" t="n">
-        <v>0.000362</v>
+        <v>0.002907</v>
       </c>
       <c r="X12" t="n">
-        <v>0.002857</v>
+        <v>0.000682</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.001805</v>
+        <v>0.001755</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.000683</v>
+        <v>0.000349</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.001284</v>
+        <v>0.001256</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.000222</v>
+        <v>5e-06</v>
       </c>
       <c r="AC12" t="n">
-        <v>6e-06</v>
+        <v>0.000219</v>
       </c>
       <c r="AD12" t="n">
         <v>5e-06</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.007321</v>
+        <v>0.007177</v>
       </c>
       <c r="AF12" t="n">
         <v>1.5e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.006205</v>
+        <v>0.005819</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.9406e-08</v>
+        <v>1.3738e-08</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.004906</v>
+        <v>0.004851</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9.7e-05</v>
+        <v>9.1e-05</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.00023</v>
+        <v>1e-06</v>
       </c>
       <c r="AL12" t="n">
-        <v>1e-06</v>
+        <v>0.000246</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.000295</v>
+        <v>0.000289</v>
       </c>
       <c r="AN12" t="n">
         <v>3e-06</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.000326</v>
+        <v>0.000313</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44814</v>
+        <v>44819</v>
       </c>
       <c r="B13" t="n">
-        <v>21186.66</v>
+        <v>19754.33</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08038099999999999</v>
+        <v>0.07546899999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>4.6e-05</v>
+        <v>4.9e-05</v>
       </c>
       <c r="E13" t="n">
-        <v>4.6e-05</v>
+        <v>4.9e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>0.013654</v>
+        <v>0.013659</v>
       </c>
       <c r="G13" t="n">
         <v>1.6e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>4.6e-05</v>
+        <v>4.9e-05</v>
       </c>
       <c r="I13" t="n">
         <v>2.3e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.001613</v>
+        <v>0.001651</v>
       </c>
       <c r="K13" t="n">
         <v>3e-06</v>
       </c>
       <c r="L13" t="n">
+        <v>0.000351</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5.91e-10</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.9e-05</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4.2e-05</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.07439</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3e-06</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.000297</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.000931</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.996501</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.000239</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.000761</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.002877</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.00067</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.001793</v>
+      </c>
+      <c r="Z13" t="n">
         <v>0.000359</v>
       </c>
-      <c r="M13" t="n">
-        <v>6.01e-10</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4.6e-05</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.077926</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4.1e-05</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3e-06</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.000947</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.000302</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.99831</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.0007649999999999999</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0.000231</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.000359</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.002853</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0.001803</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.000735</v>
-      </c>
       <c r="AA13" t="n">
-        <v>0.001272</v>
+        <v>0.001225</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.00022</v>
+        <v>5e-06</v>
       </c>
       <c r="AC13" t="n">
-        <v>6e-06</v>
+        <v>0.000214</v>
       </c>
       <c r="AD13" t="n">
         <v>5e-06</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.007341</v>
+        <v>0.007343</v>
       </c>
       <c r="AF13" t="n">
         <v>1.5e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.006107</v>
+        <v>0.005861</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.9461e-08</v>
+        <v>1.2498e-08</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.004752</v>
+        <v>0.004827</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9.7e-05</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.000232</v>
+        <v>1e-06</v>
       </c>
       <c r="AL13" t="n">
-        <v>1e-06</v>
+        <v>0.000248</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.000293</v>
+        <v>0.000289</v>
       </c>
       <c r="AN13" t="n">
         <v>3e-06</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.000329</v>
+        <v>0.000304</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44815</v>
+        <v>44820</v>
       </c>
       <c r="B14" t="n">
-        <v>21415.84</v>
+        <v>19473.37</v>
       </c>
       <c r="C14" t="n">
-        <v>0.080564</v>
+        <v>0.07309599999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>4.6e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>4.6e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0136</v>
+        <v>0.013689</v>
       </c>
       <c r="G14" t="n">
         <v>1.6e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>4.6e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>2.4e-05</v>
+        <v>2.3e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.001596</v>
+        <v>0.001634</v>
       </c>
       <c r="K14" t="n">
         <v>3e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>0.000356</v>
+        <v>0.000346</v>
       </c>
       <c r="M14" t="n">
-        <v>5.94e-10</v>
+        <v>5.83e-10</v>
       </c>
       <c r="N14" t="n">
-        <v>4.6e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>0.078308</v>
+        <v>4.1e-05</v>
       </c>
       <c r="P14" t="n">
-        <v>4.1e-05</v>
+        <v>0.072148</v>
       </c>
       <c r="Q14" t="n">
         <v>3e-06</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0009389999999999999</v>
+        <v>0.000292</v>
       </c>
       <c r="S14" t="n">
-        <v>0.000302</v>
+        <v>0.000899</v>
       </c>
       <c r="T14" t="n">
-        <v>0.998109</v>
+        <v>0.997956</v>
       </c>
       <c r="U14" t="n">
-        <v>0.000749</v>
+        <v>0.000244</v>
       </c>
       <c r="V14" t="n">
-        <v>0.000229</v>
+        <v>0.000767</v>
       </c>
       <c r="W14" t="n">
-        <v>0.000363</v>
+        <v>0.002794</v>
       </c>
       <c r="X14" t="n">
-        <v>0.002897</v>
+        <v>0.000744</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.001783</v>
+        <v>0.001712</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.000725</v>
+        <v>0.00037</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.001272</v>
+        <v>0.001218</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.000218</v>
+        <v>5e-06</v>
       </c>
       <c r="AC14" t="n">
-        <v>6e-06</v>
+        <v>0.000211</v>
       </c>
       <c r="AD14" t="n">
         <v>5e-06</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.007224</v>
+        <v>0.007309</v>
       </c>
       <c r="AF14" t="n">
         <v>1.5e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.00603</v>
+        <v>0.005915</v>
       </c>
       <c r="AH14" t="n">
-        <v>1.8452e-08</v>
+        <v>1.2477e-08</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.004784</v>
+        <v>0.005104</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.6e-05</v>
+        <v>8.8e-05</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.000231</v>
+        <v>1e-06</v>
       </c>
       <c r="AL14" t="n">
-        <v>1e-06</v>
+        <v>0.000236</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.000291</v>
+        <v>0.000289</v>
       </c>
       <c r="AN14" t="n">
         <v>3e-06</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.000326</v>
+        <v>0.000304</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44816</v>
+        <v>44821</v>
       </c>
       <c r="B15" t="n">
-        <v>21577.72</v>
+        <v>19647.43</v>
       </c>
       <c r="C15" t="n">
-        <v>0.077098</v>
+        <v>0.07155499999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>4.5e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="E15" t="n">
-        <v>4.5e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="F15" t="n">
-        <v>0.013087</v>
+        <v>0.013856</v>
       </c>
       <c r="G15" t="n">
-        <v>1.6e-05</v>
+        <v>1.7e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="I15" t="n">
-        <v>2.3e-05</v>
+        <v>2.4e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.001593</v>
+        <v>0.001628</v>
       </c>
       <c r="K15" t="n">
         <v>3e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000345</v>
+        <v>0.000347</v>
       </c>
       <c r="M15" t="n">
-        <v>5.71e-10</v>
+        <v>5.840000000000001e-10</v>
       </c>
       <c r="N15" t="n">
-        <v>4.5e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="O15" t="n">
-        <v>0.07505100000000001</v>
+        <v>4.1e-05</v>
       </c>
       <c r="P15" t="n">
-        <v>4e-05</v>
+        <v>0.070728</v>
       </c>
       <c r="Q15" t="n">
         <v>3e-06</v>
       </c>
       <c r="R15" t="n">
-        <v>0.000933</v>
+        <v>0.000294</v>
       </c>
       <c r="S15" t="n">
-        <v>0.000295</v>
+        <v>0.000913</v>
       </c>
       <c r="T15" t="n">
-        <v>0.997445</v>
+        <v>0.997718</v>
       </c>
       <c r="U15" t="n">
-        <v>0.000727</v>
+        <v>0.000246</v>
       </c>
       <c r="V15" t="n">
-        <v>0.000222</v>
+        <v>0.000778</v>
       </c>
       <c r="W15" t="n">
-        <v>0.000347</v>
+        <v>0.002814</v>
       </c>
       <c r="X15" t="n">
-        <v>0.002736</v>
+        <v>0.000809</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.001707</v>
+        <v>0.001703</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.0006890000000000001</v>
+        <v>0.000383</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.00125</v>
+        <v>0.001216</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.000217</v>
+        <v>5e-06</v>
       </c>
       <c r="AC15" t="n">
-        <v>6e-06</v>
+        <v>0.000213</v>
       </c>
       <c r="AD15" t="n">
         <v>5e-06</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.007174</v>
+        <v>0.007498</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.4e-05</v>
+        <v>1.5e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.005751</v>
+        <v>0.006013</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.4603e-08</v>
+        <v>1.4707e-08</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.004729</v>
+        <v>0.00532</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9.3e-05</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.000239</v>
+        <v>1e-06</v>
       </c>
       <c r="AL15" t="n">
-        <v>1e-06</v>
+        <v>0.000235</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.000291</v>
+        <v>0.000293</v>
       </c>
       <c r="AN15" t="n">
         <v>3e-06</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.000311</v>
+        <v>0.000312</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44817</v>
+        <v>44822</v>
       </c>
       <c r="B16" t="n">
-        <v>20253.46</v>
+        <v>19674.82</v>
       </c>
       <c r="C16" t="n">
-        <v>0.075582</v>
+        <v>0.070095</v>
       </c>
       <c r="D16" t="n">
-        <v>4.4e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="E16" t="n">
-        <v>4.4e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="F16" t="n">
-        <v>0.013018</v>
+        <v>0.013845</v>
       </c>
       <c r="G16" t="n">
-        <v>1.6e-05</v>
+        <v>1.8e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>4.4e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="I16" t="n">
-        <v>2.2e-05</v>
+        <v>2.4e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.001663</v>
+        <v>0.001644</v>
       </c>
       <c r="K16" t="n">
         <v>3e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.000339</v>
+        <v>0.000343</v>
       </c>
       <c r="M16" t="n">
-        <v>5.69e-10</v>
+        <v>5.8e-10</v>
       </c>
       <c r="N16" t="n">
-        <v>4.4e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="O16" t="n">
-        <v>0.073377</v>
+        <v>4e-05</v>
       </c>
       <c r="P16" t="n">
-        <v>4e-05</v>
+        <v>0.069493</v>
       </c>
       <c r="Q16" t="n">
         <v>3e-06</v>
       </c>
       <c r="R16" t="n">
-        <v>0.000934</v>
+        <v>0.000292</v>
       </c>
       <c r="S16" t="n">
-        <v>0.000292</v>
+        <v>0.000904</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9979980000000001</v>
+        <v>0.997988</v>
       </c>
       <c r="U16" t="n">
-        <v>0.000719</v>
+        <v>0.000236</v>
       </c>
       <c r="V16" t="n">
-        <v>0.000221</v>
+        <v>0.000769</v>
       </c>
       <c r="W16" t="n">
-        <v>0.000343</v>
+        <v>0.002832</v>
       </c>
       <c r="X16" t="n">
-        <v>0.002728</v>
+        <v>0.00078</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.001664</v>
+        <v>0.001628</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.000685</v>
+        <v>0.000396</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.001262</v>
+        <v>0.001214</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.000217</v>
+        <v>6e-06</v>
       </c>
       <c r="AC16" t="n">
-        <v>5e-06</v>
+        <v>0.000211</v>
       </c>
       <c r="AD16" t="n">
         <v>5e-06</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.007092</v>
+        <v>0.007335</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.4e-05</v>
+        <v>1.5e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.005732</v>
+        <v>0.005885</v>
       </c>
       <c r="AH16" t="n">
-        <v>1.3447e-08</v>
+        <v>1.4152e-08</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.004646</v>
+        <v>0.005271</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>8.899999999999999e-05</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.00024</v>
+        <v>1e-06</v>
       </c>
       <c r="AL16" t="n">
-        <v>1e-06</v>
+        <v>0.000253</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.000283</v>
+        <v>0.000289</v>
       </c>
       <c r="AN16" t="n">
         <v>3e-06</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.000307</v>
+        <v>0.000306</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44818</v>
+        <v>44823</v>
       </c>
       <c r="B17" t="n">
-        <v>19850.48</v>
+        <v>18471.22</v>
       </c>
       <c r="C17" t="n">
-        <v>0.077885</v>
+        <v>0.06861200000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>4.9e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="E17" t="n">
-        <v>4.9e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>0.013673</v>
+        <v>0.013672</v>
       </c>
       <c r="G17" t="n">
-        <v>1.6e-05</v>
+        <v>1.8e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>4.9e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="I17" t="n">
         <v>2.3e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.001635</v>
+        <v>0.001602</v>
       </c>
       <c r="K17" t="n">
         <v>3e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00035</v>
+        <v>0.00033</v>
       </c>
       <c r="M17" t="n">
-        <v>5.96e-10</v>
+        <v>5.47e-10</v>
       </c>
       <c r="N17" t="n">
-        <v>4.9e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="O17" t="n">
-        <v>0.075437</v>
+        <v>3.9e-05</v>
       </c>
       <c r="P17" t="n">
-        <v>4.2e-05</v>
+        <v>0.068148</v>
       </c>
       <c r="Q17" t="n">
         <v>3e-06</v>
       </c>
       <c r="R17" t="n">
-        <v>0.000936</v>
+        <v>0.00028</v>
       </c>
       <c r="S17" t="n">
-        <v>0.000299</v>
+        <v>0.000862</v>
       </c>
       <c r="T17" t="n">
-        <v>0.998435</v>
+        <v>0.996937</v>
       </c>
       <c r="U17" t="n">
-        <v>0.000748</v>
+        <v>0.000235</v>
       </c>
       <c r="V17" t="n">
-        <v>0.000235</v>
+        <v>0.000771</v>
       </c>
       <c r="W17" t="n">
-        <v>0.000349</v>
+        <v>0.00271</v>
       </c>
       <c r="X17" t="n">
-        <v>0.002907</v>
+        <v>0.00076</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.001755</v>
+        <v>0.001503</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.000682</v>
+        <v>0.000379</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.001256</v>
+        <v>0.001205</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.000219</v>
+        <v>6e-06</v>
       </c>
       <c r="AC17" t="n">
-        <v>5e-06</v>
+        <v>0.000201</v>
       </c>
       <c r="AD17" t="n">
         <v>5e-06</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.007177</v>
+        <v>0.00715</v>
       </c>
       <c r="AF17" t="n">
         <v>1.5e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.005819</v>
+        <v>0.005761</v>
       </c>
       <c r="AH17" t="n">
-        <v>1.3738e-08</v>
+        <v>1.3943e-08</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.004851</v>
+        <v>0.005237</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.1e-05</v>
+        <v>8.500000000000001e-05</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.000246</v>
+        <v>1e-06</v>
       </c>
       <c r="AL17" t="n">
-        <v>1e-06</v>
+        <v>0.000261</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.000289</v>
+        <v>0.00027</v>
       </c>
       <c r="AN17" t="n">
         <v>3e-06</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.000313</v>
+        <v>0.000293</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44819</v>
+        <v>44824</v>
       </c>
       <c r="B18" t="n">
-        <v>19754.33</v>
+        <v>18830.92</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07546899999999999</v>
+        <v>0.069564</v>
       </c>
       <c r="D18" t="n">
-        <v>4.9e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="E18" t="n">
-        <v>4.9e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="F18" t="n">
-        <v>0.013659</v>
+        <v>0.013764</v>
       </c>
       <c r="G18" t="n">
-        <v>1.6e-05</v>
+        <v>1.9e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>4.9e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="I18" t="n">
         <v>2.3e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.001651</v>
+        <v>0.001667</v>
       </c>
       <c r="K18" t="n">
         <v>3e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000351</v>
+        <v>0.000325</v>
       </c>
       <c r="M18" t="n">
-        <v>5.91e-10</v>
+        <v>5.6e-10</v>
       </c>
       <c r="N18" t="n">
-        <v>4.9e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="O18" t="n">
-        <v>0.07439</v>
+        <v>3.9e-05</v>
       </c>
       <c r="P18" t="n">
-        <v>4.2e-05</v>
+        <v>0.068941</v>
       </c>
       <c r="Q18" t="n">
         <v>3e-06</v>
       </c>
       <c r="R18" t="n">
-        <v>0.000931</v>
+        <v>0.00028</v>
       </c>
       <c r="S18" t="n">
-        <v>0.000297</v>
+        <v>0.000875</v>
       </c>
       <c r="T18" t="n">
-        <v>0.996501</v>
+        <v>0.998256</v>
       </c>
       <c r="U18" t="n">
-        <v>0.000761</v>
+        <v>0.000237</v>
       </c>
       <c r="V18" t="n">
-        <v>0.000239</v>
+        <v>0.000764</v>
       </c>
       <c r="W18" t="n">
-        <v>0.000359</v>
+        <v>0.002677</v>
       </c>
       <c r="X18" t="n">
-        <v>0.002877</v>
+        <v>0.000746</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.001793</v>
+        <v>0.001517</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.00067</v>
+        <v>0.000365</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.001225</v>
+        <v>0.001235</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.000214</v>
+        <v>6e-06</v>
       </c>
       <c r="AC18" t="n">
-        <v>5e-06</v>
+        <v>0.000205</v>
       </c>
       <c r="AD18" t="n">
         <v>5e-06</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.007343</v>
+        <v>0.007187</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.5e-05</v>
+        <v>1.6e-05</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.005861</v>
+        <v>0.005723</v>
       </c>
       <c r="AH18" t="n">
-        <v>1.2498e-08</v>
+        <v>1.5106e-08</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.004827</v>
+        <v>0.00544</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>8.6e-05</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.000248</v>
+        <v>1e-06</v>
       </c>
       <c r="AL18" t="n">
-        <v>1e-06</v>
+        <v>0.000295</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.000289</v>
+        <v>0.000279</v>
       </c>
       <c r="AN18" t="n">
         <v>3e-06</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.000304</v>
+        <v>0.000309</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44820</v>
+        <v>44825</v>
       </c>
       <c r="B19" t="n">
-        <v>19473.37</v>
+        <v>18874.85</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07309599999999999</v>
+        <v>0.069697</v>
       </c>
       <c r="D19" t="n">
-        <v>5e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="E19" t="n">
-        <v>5e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>0.013689</v>
+        <v>0.013843</v>
       </c>
       <c r="G19" t="n">
-        <v>1.6e-05</v>
+        <v>2e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>5e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="I19" t="n">
         <v>2.3e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.001634</v>
+        <v>0.001638</v>
       </c>
       <c r="K19" t="n">
         <v>3e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>0.000346</v>
+        <v>0.000326</v>
       </c>
       <c r="M19" t="n">
-        <v>5.83e-10</v>
+        <v>5.5e-10</v>
       </c>
       <c r="N19" t="n">
-        <v>5e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="O19" t="n">
-        <v>0.072148</v>
+        <v>3.8e-05</v>
       </c>
       <c r="P19" t="n">
-        <v>4.1e-05</v>
+        <v>0.069185</v>
       </c>
       <c r="Q19" t="n">
         <v>3e-06</v>
       </c>
       <c r="R19" t="n">
-        <v>0.000899</v>
+        <v>0.00028</v>
       </c>
       <c r="S19" t="n">
-        <v>0.000292</v>
+        <v>0.000878</v>
       </c>
       <c r="T19" t="n">
-        <v>0.997956</v>
+        <v>0.997733</v>
       </c>
       <c r="U19" t="n">
-        <v>0.000767</v>
+        <v>0.000224</v>
       </c>
       <c r="V19" t="n">
-        <v>0.000244</v>
+        <v>0.000775</v>
       </c>
       <c r="W19" t="n">
-        <v>0.00037</v>
+        <v>0.00272</v>
       </c>
       <c r="X19" t="n">
-        <v>0.002794</v>
+        <v>0.000726</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.001712</v>
+        <v>0.001503</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.000744</v>
+        <v>0.000362</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.001218</v>
+        <v>0.001224</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.000211</v>
+        <v>6e-06</v>
       </c>
       <c r="AC19" t="n">
-        <v>5e-06</v>
+        <v>0.000198</v>
       </c>
       <c r="AD19" t="n">
         <v>5e-06</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.007309</v>
+        <v>0.00731</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.5e-05</v>
+        <v>1.6e-05</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.005915</v>
+        <v>0.00587</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.2477e-08</v>
+        <v>1.4369e-08</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.005104</v>
+        <v>0.005279</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8.8e-05</v>
+        <v>8.6e-05</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.000236</v>
+        <v>1e-06</v>
       </c>
       <c r="AL19" t="n">
-        <v>1e-06</v>
+        <v>0.000294</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.000289</v>
+        <v>0.000275</v>
       </c>
       <c r="AN19" t="n">
         <v>3e-06</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.000304</v>
+        <v>0.000306</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44821</v>
+        <v>44826</v>
       </c>
       <c r="B20" t="n">
-        <v>19647.43</v>
+        <v>18424.7</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07155499999999999</v>
+        <v>0.067019</v>
       </c>
       <c r="D20" t="n">
-        <v>5e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="E20" t="n">
-        <v>5e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="F20" t="n">
-        <v>0.013856</v>
+        <v>0.013991</v>
       </c>
       <c r="G20" t="n">
-        <v>1.7e-05</v>
+        <v>2.1e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>5e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="I20" t="n">
         <v>2.4e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.001628</v>
+        <v>0.001658</v>
       </c>
       <c r="K20" t="n">
         <v>3e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000347</v>
+        <v>0.000328</v>
       </c>
       <c r="M20" t="n">
-        <v>5.840000000000001e-10</v>
+        <v>5.57e-10</v>
       </c>
       <c r="N20" t="n">
-        <v>5e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="O20" t="n">
-        <v>0.070728</v>
+        <v>3.8e-05</v>
       </c>
       <c r="P20" t="n">
-        <v>4.1e-05</v>
+        <v>0.066471</v>
       </c>
       <c r="Q20" t="n">
         <v>3e-06</v>
       </c>
       <c r="R20" t="n">
-        <v>0.000913</v>
+        <v>0.000285</v>
       </c>
       <c r="S20" t="n">
-        <v>0.000294</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="T20" t="n">
-        <v>0.997718</v>
+        <v>0.998541</v>
       </c>
       <c r="U20" t="n">
-        <v>0.000778</v>
+        <v>0.000229</v>
       </c>
       <c r="V20" t="n">
-        <v>0.000246</v>
+        <v>0.000776</v>
       </c>
       <c r="W20" t="n">
-        <v>0.000383</v>
+        <v>0.002752</v>
       </c>
       <c r="X20" t="n">
-        <v>0.002814</v>
+        <v>0.000712</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.001703</v>
+        <v>0.001484</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.000809</v>
+        <v>0.00036</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.001216</v>
+        <v>0.001213</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.000213</v>
+        <v>6e-06</v>
       </c>
       <c r="AC20" t="n">
-        <v>5e-06</v>
+        <v>0.000195</v>
       </c>
       <c r="AD20" t="n">
         <v>5e-06</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.007498</v>
+        <v>0.007276</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.5e-05</v>
+        <v>1.7e-05</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.006013</v>
+        <v>0.005892</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.4707e-08</v>
+        <v>1.4355e-08</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.00532</v>
+        <v>0.005381</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>8.8e-05</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.000235</v>
+        <v>1e-06</v>
       </c>
       <c r="AL20" t="n">
-        <v>1e-06</v>
+        <v>0.000298</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.000293</v>
+        <v>0.00028</v>
       </c>
       <c r="AN20" t="n">
         <v>3e-06</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.000312</v>
+        <v>0.000314</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44822</v>
+        <v>44827</v>
       </c>
       <c r="B21" t="n">
-        <v>19674.82</v>
+        <v>18663.93</v>
       </c>
       <c r="C21" t="n">
-        <v>0.070095</v>
+        <v>0.068118</v>
       </c>
       <c r="D21" t="n">
-        <v>5e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="E21" t="n">
-        <v>5e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>0.013845</v>
+        <v>0.014164</v>
       </c>
       <c r="G21" t="n">
-        <v>1.8e-05</v>
+        <v>2.5e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>5e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="I21" t="n">
         <v>2.4e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.001644</v>
+        <v>0.001669</v>
       </c>
       <c r="K21" t="n">
         <v>3e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>0.000343</v>
+        <v>0.000332</v>
       </c>
       <c r="M21" t="n">
-        <v>5.8e-10</v>
+        <v>5.59e-10</v>
       </c>
       <c r="N21" t="n">
-        <v>5e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="O21" t="n">
-        <v>0.069493</v>
+        <v>3.9e-05</v>
       </c>
       <c r="P21" t="n">
-        <v>4e-05</v>
+        <v>0.067756</v>
       </c>
       <c r="Q21" t="n">
         <v>3e-06</v>
       </c>
       <c r="R21" t="n">
-        <v>0.000904</v>
+        <v>0.000295</v>
       </c>
       <c r="S21" t="n">
-        <v>0.000292</v>
+        <v>0.000911</v>
       </c>
       <c r="T21" t="n">
-        <v>0.997988</v>
+        <v>0.997605</v>
       </c>
       <c r="U21" t="n">
-        <v>0.000769</v>
+        <v>0.000217</v>
       </c>
       <c r="V21" t="n">
-        <v>0.000236</v>
+        <v>0.000775</v>
       </c>
       <c r="W21" t="n">
-        <v>0.000396</v>
+        <v>0.002749</v>
       </c>
       <c r="X21" t="n">
-        <v>0.002832</v>
+        <v>0.000722</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.001628</v>
+        <v>0.001471</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.00078</v>
+        <v>0.000365</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.001214</v>
+        <v>0.001219</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.000211</v>
+        <v>6e-06</v>
       </c>
       <c r="AC21" t="n">
-        <v>5e-06</v>
+        <v>0.000195</v>
       </c>
       <c r="AD21" t="n">
         <v>6e-06</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.007335</v>
+        <v>0.007311</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.5e-05</v>
+        <v>1.9e-05</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.005885</v>
+        <v>0.005983</v>
       </c>
       <c r="AH21" t="n">
-        <v>1.4152e-08</v>
+        <v>1.3035e-08</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.005271</v>
+        <v>0.005347</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8.899999999999999e-05</v>
+        <v>8.8e-05</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.000253</v>
+        <v>1e-06</v>
       </c>
       <c r="AL21" t="n">
-        <v>1e-06</v>
+        <v>0.000293</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.000289</v>
+        <v>0.000284</v>
       </c>
       <c r="AN21" t="n">
-        <v>3e-06</v>
+        <v>4e-06</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.000306</v>
+        <v>0.000313</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44823</v>
+        <v>44828</v>
       </c>
       <c r="B22" t="n">
-        <v>18471.22</v>
+        <v>18815.96</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06861200000000001</v>
+        <v>0.068745</v>
       </c>
       <c r="D22" t="n">
-        <v>5.1e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="E22" t="n">
-        <v>5.1e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="F22" t="n">
-        <v>0.013672</v>
+        <v>0.014317</v>
       </c>
       <c r="G22" t="n">
-        <v>1.8e-05</v>
+        <v>2.5e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>5.1e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="I22" t="n">
-        <v>2.3e-05</v>
+        <v>2.4e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001602</v>
+        <v>0.001695</v>
       </c>
       <c r="K22" t="n">
         <v>3e-06</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00033</v>
+        <v>0.000333</v>
       </c>
       <c r="M22" t="n">
-        <v>5.47e-10</v>
+        <v>5.74e-10</v>
       </c>
       <c r="N22" t="n">
-        <v>5.1e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="O22" t="n">
-        <v>0.068148</v>
+        <v>4e-05</v>
       </c>
       <c r="P22" t="n">
-        <v>3.9e-05</v>
+        <v>0.068202</v>
       </c>
       <c r="Q22" t="n">
         <v>3e-06</v>
       </c>
       <c r="R22" t="n">
-        <v>0.000862</v>
+        <v>0.000306</v>
       </c>
       <c r="S22" t="n">
-        <v>0.00028</v>
+        <v>0.000929</v>
       </c>
       <c r="T22" t="n">
-        <v>0.996937</v>
+        <v>0.997417</v>
       </c>
       <c r="U22" t="n">
-        <v>0.000771</v>
+        <v>0.000217</v>
       </c>
       <c r="V22" t="n">
-        <v>0.000235</v>
+        <v>0.00077</v>
       </c>
       <c r="W22" t="n">
-        <v>0.000379</v>
+        <v>0.00284</v>
       </c>
       <c r="X22" t="n">
-        <v>0.00271</v>
+        <v>0.000728</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.001503</v>
+        <v>0.001494</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.00076</v>
+        <v>0.000377</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.001205</v>
+        <v>0.001237</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.000201</v>
+        <v>6e-06</v>
       </c>
       <c r="AC22" t="n">
-        <v>5e-06</v>
+        <v>0.000196</v>
       </c>
       <c r="AD22" t="n">
         <v>6e-06</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.00715</v>
+        <v>0.007336</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.5e-05</v>
+        <v>2e-05</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.005761</v>
+        <v>0.006105</v>
       </c>
       <c r="AH22" t="n">
-        <v>1.3943e-08</v>
+        <v>1.2353e-08</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.005237</v>
+        <v>0.005644</v>
       </c>
       <c r="AJ22" t="n">
-        <v>8.500000000000001e-05</v>
+        <v>8.899999999999999e-05</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.000261</v>
+        <v>1e-06</v>
       </c>
       <c r="AL22" t="n">
-        <v>1e-06</v>
+        <v>0.000289</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.00027</v>
+        <v>0.000295</v>
       </c>
       <c r="AN22" t="n">
-        <v>3e-06</v>
+        <v>4e-06</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.000293</v>
+        <v>0.00032</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44824</v>
+        <v>44829</v>
       </c>
       <c r="B23" t="n">
-        <v>18830.92</v>
+        <v>18911.03</v>
       </c>
       <c r="C23" t="n">
-        <v>0.069564</v>
+        <v>0.068143</v>
       </c>
       <c r="D23" t="n">
-        <v>5.1e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="E23" t="n">
-        <v>5.1e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="F23" t="n">
-        <v>0.013764</v>
+        <v>0.014464</v>
       </c>
       <c r="G23" t="n">
-        <v>1.9e-05</v>
+        <v>2.5e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>5.1e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="I23" t="n">
-        <v>2.3e-05</v>
+        <v>2.4e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.001667</v>
+        <v>0.001737</v>
       </c>
       <c r="K23" t="n">
         <v>3e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>0.000325</v>
+        <v>0.000328</v>
       </c>
       <c r="M23" t="n">
-        <v>5.6e-10</v>
+        <v>5.88e-10</v>
       </c>
       <c r="N23" t="n">
-        <v>5.1e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="O23" t="n">
-        <v>0.068941</v>
+        <v>3.9e-05</v>
       </c>
       <c r="P23" t="n">
-        <v>3.9e-05</v>
+        <v>0.067802</v>
       </c>
       <c r="Q23" t="n">
         <v>3e-06</v>
       </c>
       <c r="R23" t="n">
-        <v>0.000875</v>
+        <v>0.000303</v>
       </c>
       <c r="S23" t="n">
-        <v>0.00028</v>
+        <v>0.000923</v>
       </c>
       <c r="T23" t="n">
-        <v>0.998256</v>
+        <v>0.996709</v>
       </c>
       <c r="U23" t="n">
-        <v>0.000764</v>
+        <v>0.000223</v>
       </c>
       <c r="V23" t="n">
-        <v>0.000237</v>
+        <v>0.000798</v>
       </c>
       <c r="W23" t="n">
-        <v>0.000365</v>
+        <v>0.002822</v>
       </c>
       <c r="X23" t="n">
-        <v>0.002677</v>
+        <v>0.000722</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.001517</v>
+        <v>0.001511</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.000746</v>
+        <v>0.000404</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.001235</v>
+        <v>0.001246</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.000205</v>
+        <v>6e-06</v>
       </c>
       <c r="AC23" t="n">
-        <v>5e-06</v>
+        <v>0.000195</v>
       </c>
       <c r="AD23" t="n">
         <v>6e-06</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.007187</v>
+        <v>0.007442</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.6e-05</v>
+        <v>2e-05</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.005723</v>
+        <v>0.006049</v>
       </c>
       <c r="AH23" t="n">
-        <v>1.5106e-08</v>
+        <v>1.1244e-08</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.00544</v>
+        <v>0.005952</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8.6e-05</v>
+        <v>8.8e-05</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.000295</v>
+        <v>1e-06</v>
       </c>
       <c r="AL23" t="n">
-        <v>1e-06</v>
+        <v>0.000286</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.000279</v>
+        <v>0.000294</v>
       </c>
       <c r="AN23" t="n">
-        <v>3e-06</v>
+        <v>4e-06</v>
       </c>
       <c r="AO23" t="n">
-        <v>0.000309</v>
+        <v>0.000311</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44825</v>
+        <v>44830</v>
       </c>
       <c r="B24" t="n">
-        <v>18874.85</v>
+        <v>18708.63</v>
       </c>
       <c r="C24" t="n">
-        <v>0.069697</v>
+        <v>0.06834899999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>5.1e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="E24" t="n">
-        <v>5.1e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="F24" t="n">
-        <v>0.013843</v>
+        <v>0.014323</v>
       </c>
       <c r="G24" t="n">
-        <v>2e-05</v>
+        <v>2.4e-05</v>
       </c>
       <c r="H24" t="n">
         <v>5.2e-05</v>
@@ -3425,236 +3425,236 @@
         <v>2.3e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.001638</v>
+        <v>0.001713</v>
       </c>
       <c r="K24" t="n">
         <v>3e-06</v>
       </c>
       <c r="L24" t="n">
-        <v>0.000326</v>
+        <v>0.000328</v>
       </c>
       <c r="M24" t="n">
-        <v>5.5e-10</v>
+        <v>5.71e-10</v>
       </c>
       <c r="N24" t="n">
-        <v>5.1e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="O24" t="n">
-        <v>0.069185</v>
+        <v>3.9e-05</v>
       </c>
       <c r="P24" t="n">
-        <v>3.8e-05</v>
+        <v>0.06801699999999999</v>
       </c>
       <c r="Q24" t="n">
         <v>3e-06</v>
       </c>
       <c r="R24" t="n">
-        <v>0.000878</v>
+        <v>0.000297</v>
       </c>
       <c r="S24" t="n">
-        <v>0.00028</v>
+        <v>0.000905</v>
       </c>
       <c r="T24" t="n">
-        <v>0.997733</v>
+        <v>0.998341</v>
       </c>
       <c r="U24" t="n">
-        <v>0.000775</v>
+        <v>0.000213</v>
       </c>
       <c r="V24" t="n">
-        <v>0.000224</v>
+        <v>0.000791</v>
       </c>
       <c r="W24" t="n">
-        <v>0.000362</v>
+        <v>0.002765</v>
       </c>
       <c r="X24" t="n">
-        <v>0.00272</v>
+        <v>0.000731</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.001503</v>
+        <v>0.00147</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.000726</v>
+        <v>0.000402</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.001224</v>
+        <v>0.001242</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.000198</v>
+        <v>6e-06</v>
       </c>
       <c r="AC24" t="n">
-        <v>5e-06</v>
+        <v>0.00019</v>
       </c>
       <c r="AD24" t="n">
         <v>6e-06</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.00731</v>
+        <v>0.007461</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.6e-05</v>
+        <v>1.9e-05</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.00587</v>
+        <v>0.006</v>
       </c>
       <c r="AH24" t="n">
-        <v>1.4369e-08</v>
+        <v>9.826999999999999e-09</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.005279</v>
+        <v>0.006055</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8.6e-05</v>
+        <v>8.500000000000001e-05</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.000294</v>
+        <v>1e-06</v>
       </c>
       <c r="AL24" t="n">
-        <v>1e-06</v>
+        <v>0.000285</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.000275</v>
+        <v>0.000295</v>
       </c>
       <c r="AN24" t="n">
-        <v>3e-06</v>
+        <v>4e-06</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.000306</v>
+        <v>0.00031</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44826</v>
+        <v>44831</v>
       </c>
       <c r="B25" t="n">
-        <v>18424.7</v>
+        <v>18966.33</v>
       </c>
       <c r="C25" t="n">
-        <v>0.067019</v>
+        <v>0.06836200000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>5.2e-05</v>
+        <v>4.9e-05</v>
       </c>
       <c r="E25" t="n">
-        <v>5.2e-05</v>
+        <v>4.9e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>0.013991</v>
+        <v>0.013983</v>
       </c>
       <c r="G25" t="n">
-        <v>2.1e-05</v>
+        <v>2.3e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>5.2e-05</v>
+        <v>4.9e-05</v>
       </c>
       <c r="I25" t="n">
-        <v>2.4e-05</v>
+        <v>2.2e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.001658</v>
+        <v>0.001706</v>
       </c>
       <c r="K25" t="n">
         <v>3e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>0.000328</v>
+        <v>0.000331</v>
       </c>
       <c r="M25" t="n">
-        <v>5.57e-10</v>
+        <v>5.6e-10</v>
       </c>
       <c r="N25" t="n">
-        <v>5.2e-05</v>
+        <v>4.9e-05</v>
       </c>
       <c r="O25" t="n">
-        <v>0.066471</v>
+        <v>3.8e-05</v>
       </c>
       <c r="P25" t="n">
-        <v>3.8e-05</v>
+        <v>0.068204</v>
       </c>
       <c r="Q25" t="n">
         <v>3e-06</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0008899999999999999</v>
+        <v>0.000306</v>
       </c>
       <c r="S25" t="n">
-        <v>0.000285</v>
+        <v>0.000891</v>
       </c>
       <c r="T25" t="n">
-        <v>0.998541</v>
+        <v>0.997774</v>
       </c>
       <c r="U25" t="n">
-        <v>0.000776</v>
+        <v>0.000203</v>
       </c>
       <c r="V25" t="n">
-        <v>0.000229</v>
+        <v>0.000768</v>
       </c>
       <c r="W25" t="n">
-        <v>0.00036</v>
+        <v>0.002702</v>
       </c>
       <c r="X25" t="n">
-        <v>0.002752</v>
+        <v>0.000697</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.001484</v>
+        <v>0.001432</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.000712</v>
+        <v>0.000406</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.001213</v>
+        <v>0.001225</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.000195</v>
+        <v>6e-06</v>
       </c>
       <c r="AC25" t="n">
-        <v>5e-06</v>
+        <v>0.000185</v>
       </c>
       <c r="AD25" t="n">
         <v>6e-06</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.007276</v>
+        <v>0.007429</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.7e-05</v>
+        <v>1.8e-05</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.005892</v>
+        <v>0.005877</v>
       </c>
       <c r="AH25" t="n">
-        <v>1.4355e-08</v>
+        <v>1.3698e-08</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.005381</v>
+        <v>0.00607</v>
       </c>
       <c r="AJ25" t="n">
-        <v>8.8e-05</v>
+        <v>8.4e-05</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.000298</v>
+        <v>1e-06</v>
       </c>
       <c r="AL25" t="n">
-        <v>1e-06</v>
+        <v>0.00028</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.00028</v>
+        <v>0.000293</v>
       </c>
       <c r="AN25" t="n">
-        <v>3e-06</v>
+        <v>4e-06</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.000314</v>
+        <v>0.000312</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44827</v>
+        <v>44832</v>
       </c>
       <c r="B26" t="n">
-        <v>18663.93</v>
+        <v>18548.96</v>
       </c>
       <c r="C26" t="n">
-        <v>0.068118</v>
+        <v>0.068109</v>
       </c>
       <c r="D26" t="n">
         <v>5.1e-05</v>
@@ -3663,623 +3663,623 @@
         <v>5.1e-05</v>
       </c>
       <c r="F26" t="n">
-        <v>0.014164</v>
+        <v>0.014203</v>
       </c>
       <c r="G26" t="n">
-        <v>2.5e-05</v>
+        <v>2.2e-05</v>
       </c>
       <c r="H26" t="n">
         <v>5.1e-05</v>
       </c>
       <c r="I26" t="n">
-        <v>2.4e-05</v>
+        <v>2.2e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.001669</v>
+        <v>0.001692</v>
       </c>
       <c r="K26" t="n">
         <v>3e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>0.000332</v>
+        <v>0.000327</v>
       </c>
       <c r="M26" t="n">
-        <v>5.59e-10</v>
+        <v>5.72e-10</v>
       </c>
       <c r="N26" t="n">
         <v>5.1e-05</v>
       </c>
       <c r="O26" t="n">
-        <v>0.067756</v>
+        <v>3.8e-05</v>
       </c>
       <c r="P26" t="n">
-        <v>3.9e-05</v>
+        <v>0.06796099999999999</v>
       </c>
       <c r="Q26" t="n">
         <v>3e-06</v>
       </c>
       <c r="R26" t="n">
-        <v>0.000911</v>
+        <v>0.000325</v>
       </c>
       <c r="S26" t="n">
-        <v>0.000295</v>
+        <v>0.000882</v>
       </c>
       <c r="T26" t="n">
-        <v>0.997605</v>
+        <v>0.998075</v>
       </c>
       <c r="U26" t="n">
-        <v>0.000775</v>
+        <v>0.000214</v>
       </c>
       <c r="V26" t="n">
-        <v>0.000217</v>
+        <v>0.00079</v>
       </c>
       <c r="W26" t="n">
-        <v>0.000365</v>
+        <v>0.00272</v>
       </c>
       <c r="X26" t="n">
-        <v>0.002749</v>
+        <v>0.000666</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.001471</v>
+        <v>0.001417</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.000722</v>
+        <v>0.000406</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.001219</v>
+        <v>0.001227</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.000195</v>
+        <v>6e-06</v>
       </c>
       <c r="AC26" t="n">
-        <v>6e-06</v>
+        <v>0.000183</v>
       </c>
       <c r="AD26" t="n">
         <v>6e-06</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.007311</v>
+        <v>0.007441</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.9e-05</v>
+        <v>1.8e-05</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.005983</v>
+        <v>0.005815</v>
       </c>
       <c r="AH26" t="n">
-        <v>1.3035e-08</v>
+        <v>1.3971e-08</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.005347</v>
+        <v>0.006722</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8.8e-05</v>
+        <v>8.4e-05</v>
       </c>
       <c r="AK26" t="n">
-        <v>0.000293</v>
+        <v>1e-06</v>
       </c>
       <c r="AL26" t="n">
-        <v>1e-06</v>
+        <v>0.000276</v>
       </c>
       <c r="AM26" t="n">
-        <v>0.000284</v>
+        <v>0.000296</v>
       </c>
       <c r="AN26" t="n">
         <v>4e-06</v>
       </c>
       <c r="AO26" t="n">
-        <v>0.000313</v>
+        <v>0.000309</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44828</v>
+        <v>44833</v>
       </c>
       <c r="B27" t="n">
-        <v>18815.96</v>
+        <v>19099.74</v>
       </c>
       <c r="C27" t="n">
-        <v>0.068745</v>
+        <v>0.068315</v>
       </c>
       <c r="D27" t="n">
-        <v>5.2e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="E27" t="n">
-        <v>5.2e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>0.014317</v>
+        <v>0.014296</v>
       </c>
       <c r="G27" t="n">
-        <v>2.5e-05</v>
+        <v>2.1e-05</v>
       </c>
       <c r="H27" t="n">
-        <v>5.2e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="I27" t="n">
-        <v>2.4e-05</v>
+        <v>2.2e-05</v>
       </c>
       <c r="J27" t="n">
-        <v>0.001695</v>
+        <v>0.0017</v>
       </c>
       <c r="K27" t="n">
         <v>3e-06</v>
       </c>
       <c r="L27" t="n">
-        <v>0.000333</v>
+        <v>0.000326</v>
       </c>
       <c r="M27" t="n">
-        <v>5.74e-10</v>
+        <v>5.67e-10</v>
       </c>
       <c r="N27" t="n">
-        <v>5.2e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="O27" t="n">
-        <v>0.068202</v>
+        <v>3.8e-05</v>
       </c>
       <c r="P27" t="n">
-        <v>4e-05</v>
+        <v>0.068051</v>
       </c>
       <c r="Q27" t="n">
         <v>3e-06</v>
       </c>
       <c r="R27" t="n">
-        <v>0.000929</v>
+        <v>0.000322</v>
       </c>
       <c r="S27" t="n">
-        <v>0.000306</v>
+        <v>0.0008809999999999999</v>
       </c>
       <c r="T27" t="n">
-        <v>0.997417</v>
+        <v>0.998359</v>
       </c>
       <c r="U27" t="n">
-        <v>0.00077</v>
+        <v>0.000209</v>
       </c>
       <c r="V27" t="n">
-        <v>0.000217</v>
+        <v>0.000788</v>
       </c>
       <c r="W27" t="n">
-        <v>0.000377</v>
+        <v>0.002718</v>
       </c>
       <c r="X27" t="n">
-        <v>0.00284</v>
+        <v>0.00065</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.001494</v>
+        <v>0.001412</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.000728</v>
+        <v>0.000394</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.001237</v>
+        <v>0.001232</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.000196</v>
+        <v>6e-06</v>
       </c>
       <c r="AC27" t="n">
-        <v>6e-06</v>
+        <v>0.000183</v>
       </c>
       <c r="AD27" t="n">
         <v>6e-06</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.007336</v>
+        <v>0.007517</v>
       </c>
       <c r="AF27" t="n">
-        <v>2e-05</v>
+        <v>1.8e-05</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.006105</v>
+        <v>0.005848</v>
       </c>
       <c r="AH27" t="n">
-        <v>1.2353e-08</v>
+        <v>1.3977e-08</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.005644</v>
+        <v>0.006705</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8.899999999999999e-05</v>
+        <v>8.4e-05</v>
       </c>
       <c r="AK27" t="n">
-        <v>0.000289</v>
+        <v>1e-06</v>
       </c>
       <c r="AL27" t="n">
-        <v>1e-06</v>
+        <v>0.000274</v>
       </c>
       <c r="AM27" t="n">
-        <v>0.000295</v>
+        <v>0.000294</v>
       </c>
       <c r="AN27" t="n">
         <v>4e-06</v>
       </c>
       <c r="AO27" t="n">
-        <v>0.00032</v>
+        <v>0.000308</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44829</v>
+        <v>44834</v>
       </c>
       <c r="B28" t="n">
-        <v>18911.03</v>
+        <v>19270.72</v>
       </c>
       <c r="C28" t="n">
-        <v>0.068143</v>
+        <v>0.06808400000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>5.2e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>5.2e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="F28" t="n">
-        <v>0.014464</v>
+        <v>0.014451</v>
       </c>
       <c r="G28" t="n">
-        <v>2.5e-05</v>
+        <v>2.3e-05</v>
       </c>
       <c r="H28" t="n">
-        <v>5.2e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="I28" t="n">
-        <v>2.4e-05</v>
+        <v>2.2e-05</v>
       </c>
       <c r="J28" t="n">
-        <v>0.001737</v>
+        <v>0.001724</v>
       </c>
       <c r="K28" t="n">
         <v>3e-06</v>
       </c>
       <c r="L28" t="n">
-        <v>0.000328</v>
+        <v>0.000325</v>
       </c>
       <c r="M28" t="n">
-        <v>5.88e-10</v>
+        <v>5.64e-10</v>
       </c>
       <c r="N28" t="n">
-        <v>5.2e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="O28" t="n">
-        <v>0.067802</v>
+        <v>3.9e-05</v>
       </c>
       <c r="P28" t="n">
-        <v>3.9e-05</v>
+        <v>0.067845</v>
       </c>
       <c r="Q28" t="n">
         <v>3e-06</v>
       </c>
       <c r="R28" t="n">
-        <v>0.000923</v>
+        <v>0.000323</v>
       </c>
       <c r="S28" t="n">
-        <v>0.000303</v>
+        <v>0.000876</v>
       </c>
       <c r="T28" t="n">
-        <v>0.996709</v>
+        <v>0.997393</v>
       </c>
       <c r="U28" t="n">
-        <v>0.000798</v>
+        <v>0.000215</v>
       </c>
       <c r="V28" t="n">
-        <v>0.000223</v>
+        <v>0.000799</v>
       </c>
       <c r="W28" t="n">
-        <v>0.000404</v>
+        <v>0.002741</v>
       </c>
       <c r="X28" t="n">
-        <v>0.002822</v>
+        <v>0.0006489999999999999</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.001511</v>
+        <v>0.001407</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.000722</v>
+        <v>0.000387</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.001246</v>
+        <v>0.00124</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.000195</v>
+        <v>6e-06</v>
       </c>
       <c r="AC28" t="n">
-        <v>6e-06</v>
+        <v>0.000181</v>
       </c>
       <c r="AD28" t="n">
         <v>6e-06</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.007442</v>
+        <v>0.007532</v>
       </c>
       <c r="AF28" t="n">
-        <v>2e-05</v>
+        <v>1.8e-05</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.006049</v>
+        <v>0.005933</v>
       </c>
       <c r="AH28" t="n">
-        <v>1.1244e-08</v>
+        <v>1.4161e-08</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.005952</v>
+        <v>0.006738</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8.8e-05</v>
+        <v>8.500000000000001e-05</v>
       </c>
       <c r="AK28" t="n">
-        <v>0.000286</v>
+        <v>1e-06</v>
       </c>
       <c r="AL28" t="n">
-        <v>1e-06</v>
+        <v>0.000275</v>
       </c>
       <c r="AM28" t="n">
-        <v>0.000294</v>
+        <v>0.00029</v>
       </c>
       <c r="AN28" t="n">
         <v>4e-06</v>
       </c>
       <c r="AO28" t="n">
-        <v>0.000311</v>
+        <v>0.000309</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44830</v>
+        <v>44835</v>
       </c>
       <c r="B29" t="n">
-        <v>18708.63</v>
+        <v>19260.25</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06834899999999999</v>
+        <v>0.067926</v>
       </c>
       <c r="D29" t="n">
-        <v>5.2e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="E29" t="n">
-        <v>5.2e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="F29" t="n">
-        <v>0.014323</v>
+        <v>0.014452</v>
       </c>
       <c r="G29" t="n">
         <v>2.4e-05</v>
       </c>
       <c r="H29" t="n">
-        <v>5.2e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="I29" t="n">
-        <v>2.3e-05</v>
+        <v>2.2e-05</v>
       </c>
       <c r="J29" t="n">
-        <v>0.001713</v>
+        <v>0.001693</v>
       </c>
       <c r="K29" t="n">
         <v>3e-06</v>
       </c>
       <c r="L29" t="n">
-        <v>0.000328</v>
+        <v>0.00032</v>
       </c>
       <c r="M29" t="n">
-        <v>5.71e-10</v>
+        <v>5.7e-10</v>
       </c>
       <c r="N29" t="n">
-        <v>5.2e-05</v>
+        <v>5.1e-05</v>
       </c>
       <c r="O29" t="n">
-        <v>0.06801699999999999</v>
+        <v>4e-05</v>
       </c>
       <c r="P29" t="n">
-        <v>3.9e-05</v>
+        <v>0.06778000000000001</v>
       </c>
       <c r="Q29" t="n">
         <v>3e-06</v>
       </c>
       <c r="R29" t="n">
-        <v>0.000905</v>
+        <v>0.000325</v>
       </c>
       <c r="S29" t="n">
-        <v>0.000297</v>
+        <v>0.000879</v>
       </c>
       <c r="T29" t="n">
-        <v>0.998341</v>
+        <v>0.998468</v>
       </c>
       <c r="U29" t="n">
-        <v>0.000791</v>
+        <v>0.000213</v>
       </c>
       <c r="V29" t="n">
-        <v>0.000213</v>
+        <v>0.0008229999999999999</v>
       </c>
       <c r="W29" t="n">
-        <v>0.000402</v>
+        <v>0.002741</v>
       </c>
       <c r="X29" t="n">
-        <v>0.002765</v>
+        <v>0.000655</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.00147</v>
+        <v>0.001413</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.000731</v>
+        <v>0.000383</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.001242</v>
+        <v>0.001243</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.00019</v>
+        <v>6e-06</v>
       </c>
       <c r="AC29" t="n">
-        <v>6e-06</v>
+        <v>0.000182</v>
       </c>
       <c r="AD29" t="n">
         <v>6e-06</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.007461</v>
+        <v>0.007513</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.9e-05</v>
+        <v>1.8e-05</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.006</v>
+        <v>0.006072</v>
       </c>
       <c r="AH29" t="n">
-        <v>9.826999999999999e-09</v>
+        <v>1.5116e-08</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.006055</v>
+        <v>0.007198</v>
       </c>
       <c r="AJ29" t="n">
-        <v>8.500000000000001e-05</v>
+        <v>8.6e-05</v>
       </c>
       <c r="AK29" t="n">
-        <v>0.000285</v>
+        <v>1e-06</v>
       </c>
       <c r="AL29" t="n">
-        <v>1e-06</v>
+        <v>0.000272</v>
       </c>
       <c r="AM29" t="n">
-        <v>0.000295</v>
+        <v>0.000288</v>
       </c>
       <c r="AN29" t="n">
         <v>4e-06</v>
       </c>
       <c r="AO29" t="n">
-        <v>0.00031</v>
+        <v>0.000312</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44831</v>
+        <v>44836</v>
       </c>
       <c r="B30" t="n">
-        <v>18966.33</v>
+        <v>19098.42</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06836200000000001</v>
+        <v>0.067471</v>
       </c>
       <c r="D30" t="n">
-        <v>4.9e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>4.9e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>0.013983</v>
+        <v>0.014583</v>
       </c>
       <c r="G30" t="n">
-        <v>2.3e-05</v>
+        <v>2.4e-05</v>
       </c>
       <c r="H30" t="n">
-        <v>4.9e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="I30" t="n">
         <v>2.2e-05</v>
       </c>
       <c r="J30" t="n">
-        <v>0.001706</v>
+        <v>0.00168</v>
       </c>
       <c r="K30" t="n">
         <v>3e-06</v>
       </c>
       <c r="L30" t="n">
-        <v>0.000331</v>
+        <v>0.000324</v>
       </c>
       <c r="M30" t="n">
-        <v>5.6e-10</v>
+        <v>5.72e-10</v>
       </c>
       <c r="N30" t="n">
-        <v>4.9e-05</v>
+        <v>5.2e-05</v>
       </c>
       <c r="O30" t="n">
-        <v>0.068204</v>
+        <v>4e-05</v>
       </c>
       <c r="P30" t="n">
-        <v>3.8e-05</v>
+        <v>0.067316</v>
       </c>
       <c r="Q30" t="n">
         <v>3e-06</v>
       </c>
       <c r="R30" t="n">
-        <v>0.000891</v>
+        <v>0.000325</v>
       </c>
       <c r="S30" t="n">
-        <v>0.000306</v>
+        <v>0.000874</v>
       </c>
       <c r="T30" t="n">
-        <v>0.997774</v>
+        <v>0.998654</v>
       </c>
       <c r="U30" t="n">
-        <v>0.000768</v>
+        <v>0.00021</v>
       </c>
       <c r="V30" t="n">
-        <v>0.000203</v>
+        <v>0.000815</v>
       </c>
       <c r="W30" t="n">
-        <v>0.000406</v>
+        <v>0.002735</v>
       </c>
       <c r="X30" t="n">
-        <v>0.002702</v>
+        <v>0.0006489999999999999</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.001432</v>
+        <v>0.001411</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.000697</v>
+        <v>0.00038</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.001225</v>
+        <v>0.001254</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.000185</v>
+        <v>6e-06</v>
       </c>
       <c r="AC30" t="n">
-        <v>6e-06</v>
+        <v>0.000184</v>
       </c>
       <c r="AD30" t="n">
         <v>6e-06</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.007429</v>
+        <v>0.007255</v>
       </c>
       <c r="AF30" t="n">
         <v>1.8e-05</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.005877</v>
+        <v>0.006021</v>
       </c>
       <c r="AH30" t="n">
-        <v>1.3698e-08</v>
+        <v>1.5582e-08</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.00607</v>
+        <v>0.006894</v>
       </c>
       <c r="AJ30" t="n">
-        <v>8.4e-05</v>
+        <v>8.6e-05</v>
       </c>
       <c r="AK30" t="n">
-        <v>0.00028</v>
+        <v>1e-06</v>
       </c>
       <c r="AL30" t="n">
-        <v>1e-06</v>
+        <v>0.000267</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.000293</v>
+        <v>0.000283</v>
       </c>
       <c r="AN30" t="n">
         <v>4e-06</v>
       </c>
       <c r="AO30" t="n">
-        <v>0.000312</v>
+        <v>0.000311</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44832</v>
+        <v>44837</v>
       </c>
       <c r="B31" t="n">
-        <v>18548.96</v>
+        <v>19065.15</v>
       </c>
       <c r="C31" t="n">
-        <v>0.068109</v>
+        <v>0.06705899999999999</v>
       </c>
       <c r="D31" t="n">
         <v>5.1e-05</v>
@@ -4288,10 +4288,10 @@
         <v>5.1e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>0.014203</v>
+        <v>0.014668</v>
       </c>
       <c r="G31" t="n">
-        <v>2.2e-05</v>
+        <v>2.3e-05</v>
       </c>
       <c r="H31" t="n">
         <v>5.1e-05</v>
@@ -4300,94 +4300,94 @@
         <v>2.2e-05</v>
       </c>
       <c r="J31" t="n">
-        <v>0.001692</v>
+        <v>0.001677</v>
       </c>
       <c r="K31" t="n">
         <v>3e-06</v>
       </c>
       <c r="L31" t="n">
-        <v>0.000327</v>
+        <v>0.000323</v>
       </c>
       <c r="M31" t="n">
-        <v>5.72e-10</v>
+        <v>5.66e-10</v>
       </c>
       <c r="N31" t="n">
         <v>5.1e-05</v>
       </c>
       <c r="O31" t="n">
-        <v>0.06796099999999999</v>
+        <v>4e-05</v>
       </c>
       <c r="P31" t="n">
-        <v>3.8e-05</v>
+        <v>0.06672500000000001</v>
       </c>
       <c r="Q31" t="n">
         <v>3e-06</v>
       </c>
       <c r="R31" t="n">
-        <v>0.000882</v>
+        <v>0.000325</v>
       </c>
       <c r="S31" t="n">
-        <v>0.000325</v>
+        <v>0.000865</v>
       </c>
       <c r="T31" t="n">
-        <v>0.998075</v>
+        <v>0.99831</v>
       </c>
       <c r="U31" t="n">
-        <v>0.00079</v>
+        <v>0.000211</v>
       </c>
       <c r="V31" t="n">
-        <v>0.000214</v>
+        <v>0.000792</v>
       </c>
       <c r="W31" t="n">
-        <v>0.000406</v>
+        <v>0.00272</v>
       </c>
       <c r="X31" t="n">
-        <v>0.00272</v>
+        <v>0.0006310000000000001</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.001417</v>
+        <v>0.001394</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.000666</v>
+        <v>0.000369</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.001227</v>
+        <v>0.001248</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.000183</v>
+        <v>6e-06</v>
       </c>
       <c r="AC31" t="n">
-        <v>6e-06</v>
+        <v>0.00018</v>
       </c>
       <c r="AD31" t="n">
         <v>6e-06</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.007441</v>
+        <v>0.00718</v>
       </c>
       <c r="AF31" t="n">
         <v>1.8e-05</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.005815</v>
+        <v>0.005892</v>
       </c>
       <c r="AH31" t="n">
-        <v>1.3971e-08</v>
+        <v>1.5816e-08</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.006722</v>
+        <v>0.006795</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8.4e-05</v>
+        <v>8.500000000000001e-05</v>
       </c>
       <c r="AK31" t="n">
-        <v>0.000276</v>
+        <v>1e-06</v>
       </c>
       <c r="AL31" t="n">
-        <v>1e-06</v>
+        <v>0.00026</v>
       </c>
       <c r="AM31" t="n">
-        <v>0.000296</v>
+        <v>0.000281</v>
       </c>
       <c r="AN31" t="n">
         <v>4e-06</v>
@@ -4398,13 +4398,13 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44833</v>
+        <v>44838</v>
       </c>
       <c r="B32" t="n">
-        <v>19099.74</v>
+        <v>19499.7</v>
       </c>
       <c r="C32" t="n">
-        <v>0.068315</v>
+        <v>0.06736300000000001</v>
       </c>
       <c r="D32" t="n">
         <v>5.1e-05</v>
@@ -4413,10 +4413,10 @@
         <v>5.1e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>0.014296</v>
+        <v>0.014657</v>
       </c>
       <c r="G32" t="n">
-        <v>2.1e-05</v>
+        <v>2.3e-05</v>
       </c>
       <c r="H32" t="n">
         <v>5.1e-05</v>
@@ -4425,100 +4425,100 @@
         <v>2.2e-05</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0017</v>
+        <v>0.001683</v>
       </c>
       <c r="K32" t="n">
         <v>3e-06</v>
       </c>
       <c r="L32" t="n">
-        <v>0.000326</v>
+        <v>0.000324</v>
       </c>
       <c r="M32" t="n">
-        <v>5.7e-10</v>
+        <v>5.67e-10</v>
       </c>
       <c r="N32" t="n">
         <v>5.1e-05</v>
       </c>
       <c r="O32" t="n">
-        <v>0.068051</v>
+        <v>4.1e-05</v>
       </c>
       <c r="P32" t="n">
-        <v>3.8e-05</v>
+        <v>0.06704300000000001</v>
       </c>
       <c r="Q32" t="n">
         <v>3e-06</v>
       </c>
       <c r="R32" t="n">
-        <v>0.000883</v>
+        <v>0.000333</v>
       </c>
       <c r="S32" t="n">
-        <v>0.000322</v>
+        <v>0.000869</v>
       </c>
       <c r="T32" t="n">
-        <v>0.998923</v>
+        <v>0.999933</v>
       </c>
       <c r="U32" t="n">
-        <v>0.000788</v>
+        <v>0.000212</v>
       </c>
       <c r="V32" t="n">
-        <v>0.000209</v>
+        <v>0.000787</v>
       </c>
       <c r="W32" t="n">
-        <v>0.000394</v>
+        <v>0.002745</v>
       </c>
       <c r="X32" t="n">
-        <v>0.002718</v>
+        <v>0.000653</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.001412</v>
+        <v>0.0014</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.000656</v>
+        <v>0.00037</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.001232</v>
+        <v>0.001262</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.000183</v>
+        <v>6e-06</v>
       </c>
       <c r="AC32" t="n">
-        <v>6e-06</v>
+        <v>0.000181</v>
       </c>
       <c r="AD32" t="n">
         <v>6e-06</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.007517</v>
+        <v>0.007208</v>
       </c>
       <c r="AF32" t="n">
         <v>1.8e-05</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.005848</v>
+        <v>0.005914</v>
       </c>
       <c r="AH32" t="n">
-        <v>1.3977e-08</v>
+        <v>1.571e-08</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.006705</v>
+        <v>0.007105</v>
       </c>
       <c r="AJ32" t="n">
-        <v>8.4e-05</v>
+        <v>8.6e-05</v>
       </c>
       <c r="AK32" t="n">
-        <v>0.000274</v>
+        <v>1e-06</v>
       </c>
       <c r="AL32" t="n">
-        <v>1e-06</v>
+        <v>0.000263</v>
       </c>
       <c r="AM32" t="n">
-        <v>0.000297</v>
+        <v>0.000282</v>
       </c>
       <c r="AN32" t="n">
         <v>4e-06</v>
       </c>
       <c r="AO32" t="n">
-        <v>0.000308</v>
+        <v>0.000309</v>
       </c>
     </row>
   </sheetData>

--- a/Bot_screening/low.xlsx
+++ b/Bot_screening/low.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -511,10 +511,10 @@
         <v>44808</v>
       </c>
       <c r="B2" t="n">
-        <v>19704.1</v>
+        <v>19733.99</v>
       </c>
       <c r="C2" t="n">
-        <v>0.078517</v>
+        <v>0.078568</v>
       </c>
       <c r="D2" t="n">
         <v>5e-05</v>
@@ -523,7 +523,7 @@
         <v>5e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>0.014012</v>
+        <v>0.014014</v>
       </c>
       <c r="G2" t="n">
         <v>1.7e-05</v>
@@ -535,7 +535,7 @@
         <v>2.4e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001569</v>
+        <v>0.001593</v>
       </c>
       <c r="K2" t="n">
         <v>3e-06</v>
@@ -1753,7 +1753,7 @@
         <v>5.1e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>0.014627</v>
+        <v>0.014609</v>
       </c>
       <c r="G32" t="n">
         <v>2.3e-05</v>
@@ -1765,7 +1765,7 @@
         <v>2.2e-05</v>
       </c>
       <c r="J32" t="n">
-        <v>0.001683</v>
+        <v>0.00168</v>
       </c>
       <c r="K32" t="n">
         <v>3e-06</v>
